--- a/src/player_data.xlsx
+++ b/src/player_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayash\SalishGradTag.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97B89863-B20E-4B2A-87B2-6DA48F739915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1594BC81-8D30-4A71-8104-2F91EE373EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,20 +95,20 @@
     <t>j12.tran@surreyschools.ca</t>
   </si>
   <si>
-    <t xml:space="preserve">Justin Tran  </t>
-  </si>
-  <si>
     <t>test4</t>
   </si>
   <si>
     <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/image_Justin%20Tran.jpg</t>
+  </si>
+  <si>
+    <t>Justin Tran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,14 +146,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -561,16 +560,16 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -593,50 +592,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45644.429293981499</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45644.429826388892</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>45566.654479166667</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>45566.654583333337</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45644.429293981499</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45644.429826388892</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -659,7 +658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -673,35 +672,34 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{D4ABB79C-23FB-4CD5-B42C-C817EF1CB935}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{3817514A-BF67-40E9-B1AB-F9E79809F4CE}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{D4ABB79C-23FB-4CD5-B42C-C817EF1CB935}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{3817514A-BF67-40E9-B1AB-F9E79809F4CE}"/>
     <hyperlink ref="G4" r:id="rId3" xr:uid="{43E67A18-15BD-4899-98BC-21994F5A6686}"/>
     <hyperlink ref="G5" r:id="rId4" xr:uid="{CA08C1B3-C09A-4561-AEAA-56C5FE08702E}"/>
   </hyperlinks>

--- a/src/player_data.xlsx
+++ b/src/player_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayash\SalishGradTag.github.io\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1594BC81-8D30-4A71-8104-2F91EE373EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F165C2A-2F5F-488C-95E7-F82209B947CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -59,56 +59,68 @@
     <t>Photo</t>
   </si>
   <si>
-    <t>yash.jain@surreyschools.ca</t>
-  </si>
-  <si>
-    <t>Yash Jain</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>logan.singh@surreyschools.ca</t>
-  </si>
-  <si>
-    <t>Logan Singh</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/20241204_221947_Logan%20Singh.jpg</t>
-  </si>
-  <si>
-    <t>harangad.sidhu@surreyschools.ca</t>
-  </si>
-  <si>
-    <t>Harangad Sidhu</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_5471_Harangad%20Sidhu.jpeg</t>
-  </si>
-  <si>
-    <t>j12.tran@surreyschools.ca</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/image_Justin%20Tran.jpg</t>
-  </si>
-  <si>
-    <t>Justin Tran</t>
+    <t>k.douangchanh@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Kai Douangchanh</t>
+  </si>
+  <si>
+    <t>kaiwd07</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_0616_Kai%20Douangchanh.jpeg</t>
+  </si>
+  <si>
+    <t>j.teichrieb@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Jakob Teichrieb</t>
+  </si>
+  <si>
+    <t>mr_jaakob</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_5641_Jakob%20Teichrieb.jpeg</t>
+  </si>
+  <si>
+    <t>j.puchniak@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Jason Puchniak</t>
+  </si>
+  <si>
+    <t>Gob-Trap/Jason.chad.p</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/inbound7470585376347610862_Jason%20Puchniak.jpg</t>
+  </si>
+  <si>
+    <t>jaideep.nandha@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Jaideep Nandha</t>
+  </si>
+  <si>
+    <t>jainandha_</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_3552_Jaideep%20Nandha.jpeg</t>
+  </si>
+  <si>
+    <t>himmit.virk@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Himmit Virk</t>
+  </si>
+  <si>
+    <t>freezey6090</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,10 +158,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -188,8 +199,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:G7" totalsRowShown="0">
-  <autoFilter ref="A1:G7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:G6" totalsRowShown="0">
+  <autoFilter ref="A1:G6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="4">
       <extLst>
@@ -245,7 +256,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="z-m0CBOBDUK6B1L31N-KzfRaRV1MDk1Ji9QC9EAUDfNURFZWWUg2UllaNkVFMzhMSVQwNVEyRVJSSC4u" isFormConnected="1" maxResponseId="8" latestEventMarker="12">
+      <xlmsforms:msForm id="z-m0CBOBDUK6B1L31N-KzfRaRV1MDk1Ji9QC9EAUDfNURFZWWUg2UllaNkVFMzhMSVQwNVEyRVJSSC4u" isFormConnected="1" maxResponseId="13" latestEventMarker="17">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -557,19 +568,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,121 +603,127 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>45644.429293981499</v>
+        <v>45682.867615740703</v>
       </c>
       <c r="C2" s="1">
-        <v>45644.429826388892</v>
-      </c>
-      <c r="D2" s="3" t="s">
+        <v>45682.868217592601</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45682.887291666702</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45682.887997685197</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45566.654479166667</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45566.654583333337</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45682.889201388898</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45682.890196759297</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45644.430694444403</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45644.431400463</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45682.891539351898</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45682.891759259299</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45644.432592592602</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45644.433981481503</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45682.892500000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45682.892662036997</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{D4ABB79C-23FB-4CD5-B42C-C817EF1CB935}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{3817514A-BF67-40E9-B1AB-F9E79809F4CE}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{43E67A18-15BD-4899-98BC-21994F5A6686}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{CA08C1B3-C09A-4561-AEAA-56C5FE08702E}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{5BCFD570-495F-451F-AE7D-E437867B8032}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/player_data.xlsx
+++ b/src/player_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag2\SalishGradTag.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F165C2A-2F5F-488C-95E7-F82209B947CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449050D8-2A4A-476F-86BA-D7A10474E64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="424">
   <si>
     <t>Id</t>
   </si>
@@ -53,74 +53,1268 @@
     <t>Name</t>
   </si>
   <si>
+    <t>k.douangchanh@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Kai Douangchanh</t>
+  </si>
+  <si>
+    <t>kaiwd07</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_0616_Kai%20Douangchanh.jpeg</t>
+  </si>
+  <si>
+    <t>j.teichrieb@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Jakob Teichrieb</t>
+  </si>
+  <si>
+    <t>mr_jaakob</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_5641_Jakob%20Teichrieb.jpeg</t>
+  </si>
+  <si>
+    <t>j.puchniak@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Jason Puchniak</t>
+  </si>
+  <si>
+    <t>Jason.chad.p</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/inbound7470585376347610862_Jason%20Puchniak.jpg</t>
+  </si>
+  <si>
+    <t>jaideep.nandha@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Jaideep Nandha</t>
+  </si>
+  <si>
+    <t>jainandha_</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_3552_Jaideep%20Nandha.jpeg</t>
+  </si>
+  <si>
+    <t>himmit.virk@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Himmit Virk</t>
+  </si>
+  <si>
+    <t>freezey6090</t>
+  </si>
+  <si>
+    <t>j12.tran@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Justin Tran</t>
+  </si>
+  <si>
+    <t>Chibi_Xiao</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/image_Justin%20Tran.jpg</t>
+  </si>
+  <si>
+    <t>aron.yu@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Aron Yu</t>
+  </si>
+  <si>
+    <t>aronyuuu</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_7119_Aron%20Yu.jpeg</t>
+  </si>
+  <si>
+    <t>m.brathwaite@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Makaylah Brathwaite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">makaylahbrathwaite </t>
+  </si>
+  <si>
+    <t>joshua.harris@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Josh Harris</t>
+  </si>
+  <si>
+    <t>joshuapharris2025</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_2851_Josh%20Harris.jpeg</t>
+  </si>
+  <si>
+    <t>riya.bhangu@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Riya Bhangu</t>
+  </si>
+  <si>
+    <t>riyabhangu_</t>
+  </si>
+  <si>
+    <t>sydney.marshall@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Sydney Marshall</t>
+  </si>
+  <si>
+    <t>_sydney.marshall_</t>
+  </si>
+  <si>
+    <t>m.wiggins@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Mya Wiggins</t>
+  </si>
+  <si>
+    <t>mya.wigginss</t>
+  </si>
+  <si>
+    <t>zaima.salman@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Zaima Salman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zmaslmn </t>
+  </si>
+  <si>
+    <t>s.venktes@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Shaya Venktes</t>
+  </si>
+  <si>
+    <t>_shaya_v</t>
+  </si>
+  <si>
+    <t>a.skuce@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Alex Skuce</t>
+  </si>
+  <si>
+    <t>eckoishalat_</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_8896_Alex%20Skuce.jpg</t>
+  </si>
+  <si>
+    <t>r.clunas@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Ruby Clunas</t>
+  </si>
+  <si>
+    <t>rubyclunas</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_5025_Ruby%20Clunas.jpeg</t>
+  </si>
+  <si>
+    <t>a04.zhou@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Alex Zhou</t>
+  </si>
+  <si>
+    <t>a.__zhou</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/2537530A-13E0-4151-B952-BD44EBEBA77F_Alex%20Zhou.jpeg</t>
+  </si>
+  <si>
+    <t>syedamaan.ali@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Amaan Ali</t>
+  </si>
+  <si>
+    <t>amaan._a11</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/20250131_234521_Amaan%20Ali.jpg</t>
+  </si>
+  <si>
+    <t>k.stubbings@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Katie Stubbings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">katie_stubbings_winnie </t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_4889_Katie%20Stubbings.jpeg</t>
+  </si>
+  <si>
+    <t>e.stubbings@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Evan Stubbings</t>
+  </si>
+  <si>
+    <t>evanthenerd007</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_1390_Evan%20Stubbings.jpeg</t>
+  </si>
+  <si>
+    <t>sophie.baker@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Sophie Baker</t>
+  </si>
+  <si>
+    <t>arts_1115</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_9083_Sophie%20Baker.jpeg</t>
+  </si>
+  <si>
+    <t>ej.galang@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>EJ Galang</t>
+  </si>
+  <si>
+    <t>ejglng</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_4153_EJ%20Galang.jpeg</t>
+  </si>
+  <si>
+    <t>jayde.forster@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Jayde Forster</t>
+  </si>
+  <si>
+    <t>jaydefrstr</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_20241217_091627_952_Jayde%20Forster.jpg</t>
+  </si>
+  <si>
+    <t>c.walshe@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Cora Walshe</t>
+  </si>
+  <si>
+    <t>Cora.walshe_</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_9116_Cora%20Walshe.jpeg</t>
+  </si>
+  <si>
+    <t>ted.harrison@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Ted Harrison</t>
+  </si>
+  <si>
+    <t>catlvrr112</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_3214_Ted%20Harrison.jpeg</t>
+  </si>
+  <si>
+    <t>armaani.kaila@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Armaani Kaila</t>
+  </si>
+  <si>
+    <t>armaanikaila</t>
+  </si>
+  <si>
+    <t>p.pitt@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Paris Pitt</t>
+  </si>
+  <si>
+    <t>parisxpitt</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_7815_Paris%20Pitt.jpeg</t>
+  </si>
+  <si>
+    <t>k.kurukulasuriy@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Krishalee Leeme</t>
+  </si>
+  <si>
+    <t>Krishalee_</t>
+  </si>
+  <si>
+    <t>dominic.deleon@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Dominic De Leon</t>
+  </si>
+  <si>
+    <t>dominicryderdeleon</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_1942_Dominic%20De%20Leon.jpeg</t>
+  </si>
+  <si>
+    <t>ericd.mitchell@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Eric Mitchell</t>
+  </si>
+  <si>
+    <t>yellowcomb2020</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/Snapchat-282728234_Eric%20Mitchell.jpg</t>
+  </si>
+  <si>
+    <t>c.sokacz@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Connor Sokacz</t>
+  </si>
+  <si>
+    <t>connorsokacz</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/1000019328_Connor%20Sokacz.jpeg</t>
+  </si>
+  <si>
+    <t>y.lindsay@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Jide Lindsay</t>
+  </si>
+  <si>
+    <t>jide.lindsay</t>
+  </si>
+  <si>
+    <t>bd01.patterson@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Braelyn Patterson</t>
+  </si>
+  <si>
+    <t>braelynp07</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_3135_Braelyn%20Patterson.jpeg</t>
+  </si>
+  <si>
+    <t>n.estinga@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Analisa Festing</t>
+  </si>
+  <si>
+    <t>analisafes8</t>
+  </si>
+  <si>
+    <t>haley.jones@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Haley Jones</t>
+  </si>
+  <si>
+    <t>haley.mj03</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/1D6A6D8D-894E-4FA7-9F1C-394C2F2A03FB_Haley%20Jones.jpeg</t>
+  </si>
+  <si>
+    <t>maxim.perreault@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Maxim Perreault</t>
+  </si>
+  <si>
+    <t>Maximp3rreault</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_9955_Maxim%20Perreault.jpeg</t>
+  </si>
+  <si>
+    <t>d.patrick@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Dylan Patrick</t>
+  </si>
+  <si>
+    <t>dillybarrr10</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_3599_Dylan%20Patrick.jpeg</t>
+  </si>
+  <si>
+    <t>a.lobaznyuk@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Alexei Lobaznyuk</t>
+  </si>
+  <si>
+    <t>idfkalexei</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_4364_Alexei%20Lobaznyuk.jpeg</t>
+  </si>
+  <si>
+    <t>s.kerbrat@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Sean Kerbrat</t>
+  </si>
+  <si>
+    <t>Sekhkyy</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_5609_Sean%20Kerbrat.jpeg</t>
+  </si>
+  <si>
+    <t>tommy.vuong@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Tommy Vuong</t>
+  </si>
+  <si>
+    <t>_tommyvuong</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_2322_Tommy%20Vuong.jpeg</t>
+  </si>
+  <si>
+    <t>dylanr.jones@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Dylan Jones</t>
+  </si>
+  <si>
+    <t>103klov</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_4034_Dylan%20Jones.jpeg</t>
+  </si>
+  <si>
+    <t>alexis.pascual@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Alexis Pascual</t>
+  </si>
+  <si>
+    <t>Alexispascual_</t>
+  </si>
+  <si>
+    <t>maisie.stjames@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Maisie St James</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maisiestjames </t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_8935_Maisie%20St%20James.jpeg</t>
+  </si>
+  <si>
+    <t>roxana.paredes@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Roxana Paredes</t>
+  </si>
+  <si>
+    <t>roxanamparedes</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_2902_Roxana%20Paredes.jpeg</t>
+  </si>
+  <si>
+    <t>j.mccreath@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Jesse McCreath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jesse._.mccreath </t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_0330_Jesse%20McCreath.jpeg</t>
+  </si>
+  <si>
+    <t>eliot.rogers@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Eliot Rogers</t>
+  </si>
+  <si>
+    <t>_eliotrogers</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_4521_Eliot%20Rogers.png</t>
+  </si>
+  <si>
+    <t>sienna.church@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Sienna Church</t>
+  </si>
+  <si>
+    <t>Sienna_o7</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_4763_Sienna%20Church.jpeg</t>
+  </si>
+  <si>
+    <t>hc01.wheaton@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Harry Wheaton</t>
+  </si>
+  <si>
+    <t>harrisonwheaton</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_6313_Harry%20Wheaton.jpeg</t>
+  </si>
+  <si>
+    <t>declan.irving@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Declan Irving</t>
+  </si>
+  <si>
+    <t>Declan_irving_</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_2448_Declan%20Irving.png</t>
+  </si>
+  <si>
+    <t>s01.smith@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Samuel Smith</t>
+  </si>
+  <si>
+    <t>sam_smittyy</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_1335_Samuel%20Smith.jpeg</t>
+  </si>
+  <si>
+    <t>keira.kelly@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Keira Kelly</t>
+  </si>
+  <si>
+    <t>_keirakelly</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_7780_Keira%20Kelly.png</t>
+  </si>
+  <si>
+    <t>h.fielder@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Hannah Fielder</t>
+  </si>
+  <si>
+    <t>hannah.f01</t>
+  </si>
+  <si>
+    <t>joshua.daum@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Joshua Daum</t>
+  </si>
+  <si>
+    <t>joshua_daum</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_2145_Joshua%20Daum.jpeg</t>
+  </si>
+  <si>
+    <t>nm01.hyland@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Nate Hyland</t>
+  </si>
+  <si>
+    <t>nate.hyland</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_8348_Nate%20Hyland.png</t>
+  </si>
+  <si>
+    <t>ca01.burrows@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Caydence Burrows</t>
+  </si>
+  <si>
+    <t>Caydenceburrows</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_1236_Caydence%20Burrows.jpeg</t>
+  </si>
+  <si>
+    <t>landon.mills@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Landon Mills</t>
+  </si>
+  <si>
+    <t>m._landon_</t>
+  </si>
+  <si>
+    <t>alicej.chen@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Alice Chen</t>
+  </si>
+  <si>
+    <t>alicechhn</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_7207_Alice%20Chen.png</t>
+  </si>
+  <si>
+    <t>d.kajla@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Diya Kajla</t>
+  </si>
+  <si>
+    <t>diya_kajla</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/fe124a21-cb35-4d77-a5b8-720e801898d4_Diya%20Kajla.JPG</t>
+  </si>
+  <si>
+    <t>d12.park@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Daniel Park</t>
+  </si>
+  <si>
+    <t>afr0_d_p</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_6367_Daniel%20Park.jpeg</t>
+  </si>
+  <si>
+    <t>kiana.kelly@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Kiana Kelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kianale1gh </t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_2211_Original_Kiana%20Kelly.jpeg</t>
+  </si>
+  <si>
+    <t>e.bali@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Eshaan Bali</t>
+  </si>
+  <si>
+    <t>@eshaan_bali</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/17387907531234433750182546802865_Eshaan%20Bali.jpg</t>
+  </si>
+  <si>
+    <t>b.aggarwal@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Bhargavi Aggarwal</t>
+  </si>
+  <si>
+    <t>bhargaviiii.a_</t>
+  </si>
+  <si>
+    <t>jaisha.malik@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Jaisha Malik</t>
+  </si>
+  <si>
+    <t>jaisha.m</t>
+  </si>
+  <si>
+    <t>madelineb.kim@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Madeline Kim</t>
+  </si>
+  <si>
+    <t>mmaddie.kim_</t>
+  </si>
+  <si>
+    <t>js39.dhaliwal@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Jeevan Dhaliwal</t>
+  </si>
+  <si>
+    <t>jdhals07</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_0158_Jeevan%20Dhaliwal.jpeg</t>
+  </si>
+  <si>
+    <t>morgan.jackson@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Morgan Jackson</t>
+  </si>
+  <si>
+    <t>mojackson14</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_4429_Morgan%20Jackson.jpeg</t>
+  </si>
+  <si>
+    <t>akshaj.arora@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Akshaj Arora</t>
+  </si>
+  <si>
+    <t>akshaj_ar</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_2306_Akshaj%20Arora.jpeg</t>
+  </si>
+  <si>
+    <t>s.swinimer@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Sadie Swinimer</t>
+  </si>
+  <si>
+    <t>sadie_swinimer</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_6572_Sadie%20Swinimer.jpeg</t>
+  </si>
+  <si>
+    <t>h.delatorre@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Hannah Dela Torre</t>
+  </si>
+  <si>
+    <t>hannahdelatorre</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_2041_Hannah%20Dela%20Torre.jpeg</t>
+  </si>
+  <si>
+    <t>nevaeh.nair@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Nevaeh Nair</t>
+  </si>
+  <si>
+    <t>nevaeh.nair</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_8402_Nevaeh%20Nair.jpeg</t>
+  </si>
+  <si>
+    <t>jl01.lapierre@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Jess LaPierre</t>
+  </si>
+  <si>
+    <t>jess_lappy</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_0363_Jess%20LaPierre.jpeg</t>
+  </si>
+  <si>
+    <t>b01.ha@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Brian Ha</t>
+  </si>
+  <si>
+    <t>brianha38</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/image_Brian%20Ha.jpg</t>
+  </si>
+  <si>
+    <t>scott.larsen@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Scott Larsen</t>
+  </si>
+  <si>
+    <t>a_human2_</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_3290_Scott%20Larsen.jpeg</t>
+  </si>
+  <si>
+    <t>tenel.enns@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Tenel Enns</t>
+  </si>
+  <si>
+    <t>Ten.enns</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_7237_Tenel%20Enns.png</t>
+  </si>
+  <si>
+    <t>elliot.jackson@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Elliot Jackson</t>
+  </si>
+  <si>
+    <t>elliotjackson17</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_1905_Elliot%20Jackson.jpeg</t>
+  </si>
+  <si>
+    <t>anuree.johnston@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Anuree Johnston</t>
+  </si>
+  <si>
+    <t>anuree.j</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_0528_Anuree%20Johnston.jpeg</t>
+  </si>
+  <si>
+    <t>ashli.cox@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Ashli Cox</t>
+  </si>
+  <si>
+    <t>ashy0868</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_3529_Ashli%20Cox.jpeg</t>
+  </si>
+  <si>
+    <t>lauren.macneil@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Lauren MacNeil</t>
+  </si>
+  <si>
+    <t>lauren._macneil</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_0288_Lauren%20MacNeil.jpeg</t>
+  </si>
+  <si>
+    <t>c.crooks@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Caleb Crooks</t>
+  </si>
+  <si>
+    <t>Ck._wrld2</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_2903_Caleb%20Crooks.jpeg</t>
+  </si>
+  <si>
+    <t>ryan.cheng@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Ryan Cheng</t>
+  </si>
+  <si>
+    <t>RazeDei</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_6768_Ryan%20Cheng.jpeg</t>
+  </si>
+  <si>
+    <t>connor.scott@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Connor Scott</t>
+  </si>
+  <si>
+    <t>Connorscoott</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/90E170D2-5853-4F79-89F0-3FACE983F854_Connor%20Scott.jpeg</t>
+  </si>
+  <si>
+    <t>a.paris@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Alicia Paris</t>
+  </si>
+  <si>
+    <t>Aliciakparis</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/Alicia%20Paris%20Grad%20tag%2025_Alicia%20Paris.JPG</t>
+  </si>
+  <si>
+    <t>w.weir@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Wyatt Weir</t>
+  </si>
+  <si>
+    <t>wyattlweir</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_7841_Wyatt%20Weir.png</t>
+  </si>
+  <si>
+    <t>m.floressalceda@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Miguel Flores Salceda</t>
+  </si>
+  <si>
+    <t>migu___07</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/31772397-DDCB-46D4-9B6B-E7C84F344B22_Miguel%20Flores%20Salced.jpeg</t>
+  </si>
+  <si>
+    <t>a.solabomi@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Aderinsola Solabomi</t>
+  </si>
+  <si>
+    <t>derinsolabomi</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/20250209_173924_Aderinsola%20Solabomi.jpg</t>
+  </si>
+  <si>
+    <t>harangad.sidhu@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Harnagad Sidhu</t>
+  </si>
+  <si>
+    <t>angad_ssidhu</t>
+  </si>
+  <si>
+    <t>adam.bennett@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Adam Bennett</t>
+  </si>
+  <si>
+    <t>adam_bennett41</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_4342_Adam%20Bennett.jpeg</t>
+  </si>
+  <si>
+    <t>jino.yoon@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Jino Yoon</t>
+  </si>
+  <si>
+    <t>jino_y07</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_0746_Jino%20Yoon.jpeg</t>
+  </si>
+  <si>
+    <t>sophia.fraser@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Sophia Fraser</t>
+  </si>
+  <si>
+    <t>sophia_.fraser</t>
+  </si>
+  <si>
+    <t>d.manzano@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Destiny Manzano</t>
+  </si>
+  <si>
+    <t>Destnymzzano</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_2425_Destiny%20Manzano.jpeg</t>
+  </si>
+  <si>
+    <t>e.milligan@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Ellie Milligan</t>
+  </si>
+  <si>
+    <t>ellie_.june</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_4365_Ellie%20Milligan.jpeg</t>
+  </si>
+  <si>
+    <t>lucia.bayne@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Lucia Bayne</t>
+  </si>
+  <si>
+    <t>Luciabayne5</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/2024-10-27_B241027-0187_hires_retouched_Lucia%20Bayne.jpeg</t>
+  </si>
+  <si>
+    <t>e.kelly@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Ethan Kelly</t>
+  </si>
+  <si>
+    <t>ethankelly423</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_2116_Ethan%20Kelly.jpeg</t>
+  </si>
+  <si>
+    <t>c.dares@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Carmella Dares</t>
+  </si>
+  <si>
+    <t>allemracp_9</t>
+  </si>
+  <si>
+    <t>devon.martinez@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Devon Martinez</t>
+  </si>
+  <si>
+    <t>devon_gm</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_6746_Devon%20Martinez.jpeg</t>
+  </si>
+  <si>
+    <t>m.vuilleumier@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Madelyn Vuilleumier</t>
+  </si>
+  <si>
+    <t>madelynvuilleumier</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_5599_Madelyn%20Vuilleumier.jpeg</t>
+  </si>
+  <si>
+    <t>therese.nguyen@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Therese Nguyen</t>
+  </si>
+  <si>
+    <t>therese._nguyen</t>
+  </si>
+  <si>
+    <t>hudson.wilson@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Hudson Wilson</t>
+  </si>
+  <si>
+    <t>hudson.wlsn</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_1976_Hudson%20Wilson.jpeg</t>
+  </si>
+  <si>
+    <t>h.bartley@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Harrison Bartley</t>
+  </si>
+  <si>
+    <t>Not._.harrison</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_0295_Harrison%20Bartley.jpeg</t>
+  </si>
+  <si>
+    <t>markus.laureano@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Markus Laureano</t>
+  </si>
+  <si>
+    <t>laureanomarkus</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_5964_Markus%20Laureano.jpeg</t>
+  </si>
+  <si>
+    <t>l.quan@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Liam Quan</t>
+  </si>
+  <si>
+    <t>liamquann</t>
+  </si>
+  <si>
+    <t>o.laporte@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Oliver Laporte</t>
+  </si>
+  <si>
+    <t>oliver_thedoor</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/DSC_1305_Oliver%20Laporte.jpeg</t>
+  </si>
+  <si>
+    <t>nixon.pech@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Nixon Pech</t>
+  </si>
+  <si>
+    <t>kolas_playze</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_1712_Nixon%20Pech.jpeg</t>
+  </si>
+  <si>
+    <t>eugenef.lee@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Eugene Lee</t>
+  </si>
+  <si>
+    <t>Asian_dara</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_0441_Eugene%20Lee.jpeg</t>
+  </si>
+  <si>
+    <t>s01.rayat@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Simran Rayat</t>
+  </si>
+  <si>
+    <t>rayatsimran_</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_9552_Simran%20Rayat.jpeg</t>
+  </si>
+  <si>
+    <t>arjun.randhawa@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Arjun Randhawa</t>
+  </si>
+  <si>
+    <t>arjun_randhawa007</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/image_Arjun%20Randhawa.jpg</t>
+  </si>
+  <si>
+    <t>y.balogun@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Yohann Balogun</t>
+  </si>
+  <si>
+    <t>inyohannwetrust</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_0938_Yohann%20Balogun.jpeg</t>
+  </si>
+  <si>
+    <t>rylee.mason@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Rylee Mason</t>
+  </si>
+  <si>
+    <t>rylee.m55</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_3203_Rylee%20Mason.jpeg</t>
+  </si>
+  <si>
+    <t>jl01.robertsonz@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Jasmine Robertson-Zhou</t>
+  </si>
+  <si>
+    <t>jasmine._.blossoms</t>
+  </si>
+  <si>
+    <t>m.lecian@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Marissa Lecian</t>
+  </si>
+  <si>
+    <t>its.marrisaa</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_7975_Marissa%20Lecian.jpeg</t>
+  </si>
+  <si>
     <t>HandleIG</t>
   </si>
   <si>
     <t>Photo</t>
-  </si>
-  <si>
-    <t>k.douangchanh@surreyschools.ca</t>
-  </si>
-  <si>
-    <t>Kai Douangchanh</t>
-  </si>
-  <si>
-    <t>kaiwd07</t>
-  </si>
-  <si>
-    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_0616_Kai%20Douangchanh.jpeg</t>
-  </si>
-  <si>
-    <t>j.teichrieb@surreyschools.ca</t>
-  </si>
-  <si>
-    <t>Jakob Teichrieb</t>
-  </si>
-  <si>
-    <t>mr_jaakob</t>
-  </si>
-  <si>
-    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_5641_Jakob%20Teichrieb.jpeg</t>
-  </si>
-  <si>
-    <t>j.puchniak@surreyschools.ca</t>
-  </si>
-  <si>
-    <t>Jason Puchniak</t>
-  </si>
-  <si>
-    <t>Gob-Trap/Jason.chad.p</t>
-  </si>
-  <si>
-    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/inbound7470585376347610862_Jason%20Puchniak.jpg</t>
-  </si>
-  <si>
-    <t>jaideep.nandha@surreyschools.ca</t>
-  </si>
-  <si>
-    <t>Jaideep Nandha</t>
-  </si>
-  <si>
-    <t>jainandha_</t>
-  </si>
-  <si>
-    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_3552_Jaideep%20Nandha.jpeg</t>
-  </si>
-  <si>
-    <t>himmit.virk@surreyschools.ca</t>
-  </si>
-  <si>
-    <t>Himmit Virk</t>
-  </si>
-  <si>
-    <t>freezey6090</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,12 +1352,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -199,8 +1399,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:G6" totalsRowShown="0">
-  <autoFilter ref="A1:G6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:G111" totalsRowShown="0">
+  <autoFilter ref="A1:G111" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="4">
       <extLst>
@@ -256,7 +1456,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="z-m0CBOBDUK6B1L31N-KzfRaRV1MDk1Ji9QC9EAUDfNURFZWWUg2UllaNkVFMzhMSVQwNVEyRVJSSC4u" isFormConnected="1" maxResponseId="13" latestEventMarker="17">
+      <xlmsforms:msForm id="z-m0CBOBDUK6B1L31N-KzfRaRV1MDk1Ji9QC9EAUDfNURFZWWUg2UllaNkVFMzhMSVQwNVEyRVJSSC4u" isFormConnected="1" maxResponseId="117" latestEventMarker="143">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -265,6 +1465,7 @@
         <xlmsforms:syncedQuestionId>r4343f90f8c8c4b5b934b3b14f54b666b</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>r36276f7769f844958d1129cbd805856f</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>r42290f45f6e7498cb758ca9e5b45bb0a</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>r63e1b01218744b58b6be3eecd747640c</xlmsforms:syncedQuestionId>
       </xlmsforms:msForm>
     </ext>
   </extLst>
@@ -568,19 +1769,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="6" max="6" width="35.1796875" customWidth="1"/>
+    <col min="7" max="7" width="32.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,14 +1798,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9</v>
       </c>
@@ -614,19 +1816,19 @@
         <v>45682.868217592601</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
@@ -637,19 +1839,19 @@
         <v>45682.887997685197</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11</v>
       </c>
@@ -660,19 +1862,19 @@
         <v>45682.890196759297</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12</v>
       </c>
@@ -683,19 +1885,19 @@
         <v>45682.891759259299</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>13</v>
       </c>
@@ -706,24 +1908,2398 @@
         <v>45682.892662036997</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45687.450532407398</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45687.451874999999</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45687.4504282407</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45687.452997685199</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45693.331087963001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45693.331863425898</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45693.333101851902</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45693.334884259297</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45693.381585648203</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45693.3816435185</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45693.383761574099</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45693.383946759299</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45693.386168981502</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45693.386689814797</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45693.387256944399</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45693.387499999997</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45693.386782407397</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45693.388344907398</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45693.386180555601</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45693.392523148097</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45693.3885069444</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45693.392789351899</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45693.388530092598</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45693.393090277801</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45693.433993055602</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45693.437581018501</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45693.4370949074</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45693.438067129602</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45693.437557870398</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45693.439340277801</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45693.4382175926</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45693.439583333296</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45693.439085648097</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45693.440497685202</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45693.438865740703</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45693.440520833297</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45693.437268518501</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45693.443657407399</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45693.439236111102</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45693.4449074074</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45693.454479166699</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45693.4551967593</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45693.453379629602</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45693.4552430556</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45693.455023148097</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45693.455983796302</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45693.4534837963</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45693.456168981502</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45693.455740740697</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45693.456307870401</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45693.441006944398</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45693.456527777802</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45693.455567129597</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45693.456805555601</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45693.457118055601</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45693.457928240699</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45693.458171296297</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45693.458425925899</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45693.459745370397</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45693.461226851898</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45693.461041666698</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45693.462592592601</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45693.460243055597</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45693.4628240741</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>46</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45693.460243055597</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45693.463078703702</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>47</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45693.460868055598</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45693.463275463</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>48</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45693.462025462999</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45693.463912036997</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>49</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45693.462881944397</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45693.464108796303</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>50</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45693.462071759299</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45693.464224536998</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>51</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45693.461724537003</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45693.464328703703</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45693.4607986111</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45693.464479166701</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>53</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45693.462546296301</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45693.464699074102</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>54</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45693.4601273148</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45693.465046296304</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>55</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45693.464513888903</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45693.467650462997</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>56</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45693.4621527778</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45693.468333333301</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>57</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45693.466759259303</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45693.468449074098</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>58</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45693.465902777803</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45693.4706365741</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>59</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45693.473680555602</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45693.4738657407</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>60</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45693.474166666703</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45693.4743171296</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>61</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45693.460509259297</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45693.484444444402</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>62</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45693.5067361111</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45693.507465277798</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>63</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45693.504444444399</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45693.513217592597</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>64</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45693.514733796299</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45693.515150462998</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>65</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45693.533564814803</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45693.535208333298</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>66</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45693.526342592602</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45693.536087963003</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>67</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45693.5390162037</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45693.539131944402</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>68</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45693.557129629597</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45693.557905092603</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>69</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45693.559224536999</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45693.560289351903</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>70</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45693.566655092603</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45693.566990740699</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>71</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45693.568217592598</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45693.5684259259</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>72</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45693.569166666697</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45693.569756944402</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>73</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45693.578356481499</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45693.5802430556</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>74</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45693.581990740699</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45693.582766203697</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>75</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45693.5698611111</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45693.600775462997</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>76</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45693.636932870402</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45693.637083333299</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>77</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45693.648819444403</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45693.652905092596</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>78</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45693.766921296301</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45693.768090277801</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>79</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45693.915648148097</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45693.916331018503</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>80</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45694.348124999997</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45694.348541666703</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>81</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45694.463032407402</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45694.463796296302</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>82</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45694.5000925926</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45694.502546296302</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>83</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45694.611655092602</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45694.612303240698</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>84</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45694.6250925926</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45694.628530092603</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>85</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45694.788807870398</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45694.7903703704</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>86</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45694.8891435185</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45694.889386574097</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>87</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45694.946319444403</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45694.947754629597</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>88</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45695.007071759297</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45695.009155092601</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>89</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45695.361122685201</v>
+      </c>
+      <c r="C82" s="1">
+        <v>45695.361956018503</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>90</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45695.640451388899</v>
+      </c>
+      <c r="C83" s="1">
+        <v>45695.642731481501</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>91</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45695.642361111102</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45695.645219907397</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>92</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45696.661689814799</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45696.663148148102</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>93</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45697.732141203698</v>
+      </c>
+      <c r="C86" s="1">
+        <v>45697.736180555599</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>94</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45698.446527777778</v>
+      </c>
+      <c r="C87" s="1">
+        <v>45698.446527777778</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>94</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45698.5250578704</v>
+      </c>
+      <c r="C88" s="1">
+        <v>45698.526064814803</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>95</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45698.9148263889</v>
+      </c>
+      <c r="C89" s="1">
+        <v>45698.915775463</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>96</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45699.451400462996</v>
+      </c>
+      <c r="C90" s="1">
+        <v>45699.452129629601</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>97</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45699.679201388899</v>
+      </c>
+      <c r="C91" s="1">
+        <v>45699.699282407397</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>98</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45699.9538425926</v>
+      </c>
+      <c r="C92" s="1">
+        <v>45699.955462963</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>99</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45700.399629629603</v>
+      </c>
+      <c r="C93" s="1">
+        <v>45700.399826388901</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>100</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45700.748460648101</v>
+      </c>
+      <c r="C94" s="1">
+        <v>45700.749965277799</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>101</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45700.749629629601</v>
+      </c>
+      <c r="C95" s="1">
+        <v>45700.750011574099</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>102</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45700.748217592598</v>
+      </c>
+      <c r="C96" s="1">
+        <v>45700.754849536999</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>103</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45700.787916666697</v>
+      </c>
+      <c r="C97" s="1">
+        <v>45700.788981481499</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>104</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45700.792546296303</v>
+      </c>
+      <c r="C98" s="1">
+        <v>45700.792824074102</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>105</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45700.793541666702</v>
+      </c>
+      <c r="C99" s="1">
+        <v>45700.793946759302</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>106</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45700.797071759298</v>
+      </c>
+      <c r="C100" s="1">
+        <v>45700.800636574102</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>107</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45700.799803240698</v>
+      </c>
+      <c r="C101" s="1">
+        <v>45700.801516203697</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>108</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45700.817071759302</v>
+      </c>
+      <c r="C102" s="1">
+        <v>45700.817407407398</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>109</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45700.823807870402</v>
+      </c>
+      <c r="C103" s="1">
+        <v>45700.826874999999</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>110</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45700.851527777799</v>
+      </c>
+      <c r="C104" s="1">
+        <v>45700.8534953704</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>111</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45700.865648148101</v>
+      </c>
+      <c r="C105" s="1">
+        <v>45700.866886574098</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>112</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45700.871990740699</v>
+      </c>
+      <c r="C106" s="1">
+        <v>45700.873680555596</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>113</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45700.904652777797</v>
+      </c>
+      <c r="C107" s="1">
+        <v>45700.9053935185</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>114</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45701.311516203699</v>
+      </c>
+      <c r="C108" s="1">
+        <v>45701.3140277778</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>115</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45701.356365740699</v>
+      </c>
+      <c r="C109" s="1">
+        <v>45701.357453703698</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>116</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45701.391585648104</v>
+      </c>
+      <c r="C110" s="1">
+        <v>45701.391817129603</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>117</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45701.404212963003</v>
+      </c>
+      <c r="C111" s="1">
+        <v>45701.417002314804</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>421</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{5BCFD570-495F-451F-AE7D-E437867B8032}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{45D2E60F-326A-469B-ACFC-36A28CCABDF1}"/>
+    <hyperlink ref="D87" r:id="rId3" xr:uid="{6FF0BA83-21B8-4EAD-8EBC-60DDCD853B2F}"/>
+    <hyperlink ref="G16" r:id="rId4" xr:uid="{F2B30EE7-9138-4C56-B74A-E36A28C80E18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/player_data.xlsx
+++ b/src/player_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag2\SalishGradTag.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449050D8-2A4A-476F-86BA-D7A10474E64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8483CF0B-992E-451B-A7B3-A728ECFFDBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="527">
   <si>
     <t>Id</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Chibi_Xiao</t>
   </si>
   <si>
-    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/image_Justin%20Tran.jpg</t>
-  </si>
-  <si>
     <t>aron.yu@surreyschools.ca</t>
   </si>
   <si>
@@ -638,6 +635,9 @@
     <t>hannah.f01</t>
   </si>
   <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_0712_Hannah%20Fielder.jpeg</t>
+  </si>
+  <si>
     <t>joshua.daum@surreyschools.ca</t>
   </si>
   <si>
@@ -1302,6 +1302,315 @@
   </si>
   <si>
     <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_7975_Marissa%20Lecian.jpeg</t>
+  </si>
+  <si>
+    <t>jared.mackie@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Jared Mackie</t>
+  </si>
+  <si>
+    <t>Jared_mackie22</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_8489_Jared%20Mackie.jpeg</t>
+  </si>
+  <si>
+    <t>samantha.rego@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Samantha Rego</t>
+  </si>
+  <si>
+    <t>sam_anthatr</t>
+  </si>
+  <si>
+    <t>nicholas.kelly@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Nicholas Kelly</t>
+  </si>
+  <si>
+    <t>_pha.khin_</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_4411_Nicholas%20Kelly.jpeg</t>
+  </si>
+  <si>
+    <t>fatima.hassan@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Fatima Hassan</t>
+  </si>
+  <si>
+    <t>fqtimx</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_8282_Fatima%20Hassan.jpeg</t>
+  </si>
+  <si>
+    <t>x.smith@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Xavier Smith</t>
+  </si>
+  <si>
+    <t>@xman13011</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_1839_Xavier%20Smith.jpeg</t>
+  </si>
+  <si>
+    <t>jn01.perreault@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Joanna Perreault</t>
+  </si>
+  <si>
+    <t>joannaperreault</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_1717_Joanna%20Perreault.jpeg</t>
+  </si>
+  <si>
+    <t>m.baumer@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Mateya Baumer</t>
+  </si>
+  <si>
+    <t>Mateyab13</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_7595_Mateya%20Baumer.jpeg</t>
+  </si>
+  <si>
+    <t>amani.behnam@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Amani Shamoon</t>
+  </si>
+  <si>
+    <t>amani_khleel</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_20240928_230231_315_Amani%20Shamoon.jpg</t>
+  </si>
+  <si>
+    <t>parinoor.bal@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Parinoor Bal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parinoorbal </t>
+  </si>
+  <si>
+    <t>navleen.purewal@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Navleen Purewal</t>
+  </si>
+  <si>
+    <t>navleen.purewal</t>
+  </si>
+  <si>
+    <t>m.ewasiuk@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Mia Ewasiuk</t>
+  </si>
+  <si>
+    <t>miaewasiuk</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/Screen%20Shot%202025-02-16%20at%202.31.16%20PM_Mia%20Ewasiuk.png</t>
+  </si>
+  <si>
+    <t>johnny.xing@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Johnny Xing</t>
+  </si>
+  <si>
+    <t>frosticle_phantom</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_6505_Johnny%20Xing.jpeg</t>
+  </si>
+  <si>
+    <t>kennedy.grayson@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Kennedy Grayson</t>
+  </si>
+  <si>
+    <t>K.gray14</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_6385_Kennedy%20Grayson.png</t>
+  </si>
+  <si>
+    <t>amirah.kajla@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Amirah Kajla</t>
+  </si>
+  <si>
+    <t>amirah.kajla</t>
+  </si>
+  <si>
+    <t>w01.pham@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>William Pham</t>
+  </si>
+  <si>
+    <t>will.iam_ph.am</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/DSC01414_William%20Pham.jpeg</t>
+  </si>
+  <si>
+    <t>aayan.chowdhury@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Aayan Chowdhury</t>
+  </si>
+  <si>
+    <t>aayanchowdhury</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_3646_Aayan%20Chowdhury.jpg</t>
+  </si>
+  <si>
+    <t>u.romero@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Ulises Romero</t>
+  </si>
+  <si>
+    <t>u_romero_</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_2413_Ulises%20Romero.jpeg</t>
+  </si>
+  <si>
+    <t>ethan.darby@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Ethan Darby</t>
+  </si>
+  <si>
+    <t>Ethan_darby</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_2068_Ethan%20Darby.jpeg</t>
+  </si>
+  <si>
+    <t>christian.che@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Christian Che</t>
+  </si>
+  <si>
+    <t>thqrese</t>
+  </si>
+  <si>
+    <t>m.papp@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Makayla Papp</t>
+  </si>
+  <si>
+    <t>@555kay1a</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_9678_Makayla%20Papp.jpeg</t>
+  </si>
+  <si>
+    <t>k.watkins@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Keira Watkins</t>
+  </si>
+  <si>
+    <t>@keira_grace_w</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_4055_Keira%20Watkins.jpeg</t>
+  </si>
+  <si>
+    <t>az01.chowdhury@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Arissa Chowdhury</t>
+  </si>
+  <si>
+    <t>arissazchowdhury</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/BE429AA2-454E-47A0-9237-1D55BF2D37C4_Arissa%20Chowdhury.jpeg</t>
+  </si>
+  <si>
+    <t>harbeen.sidhu@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Harbeen Sidhu</t>
+  </si>
+  <si>
+    <t>_harbeensidhu</t>
+  </si>
+  <si>
+    <t>kyleigh.pope@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Kyleigh Pope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kyleigh_mikala </t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_6260_Kyleigh%20Pope.jpeg</t>
+  </si>
+  <si>
+    <t>grace.simmons@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Grace Simmons</t>
+  </si>
+  <si>
+    <t>grace._simms</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_8057_Grace%20Simmons.jpeg</t>
+  </si>
+  <si>
+    <t>jaeden.potter@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Jaeden Potter</t>
+  </si>
+  <si>
+    <t>Jaedenn.m_</t>
+  </si>
+  <si>
+    <t>p.jerusalem@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Paula Jerusalem</t>
+  </si>
+  <si>
+    <t>dodosgofeces</t>
+  </si>
+  <si>
+    <t>i.fuller@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Bella Fuller</t>
+  </si>
+  <si>
+    <t>belllafuller</t>
   </si>
   <si>
     <t>HandleIG</t>
@@ -1399,8 +1708,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:G111" totalsRowShown="0">
-  <autoFilter ref="A1:G111" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:G139" totalsRowShown="0">
+  <autoFilter ref="A1:G139" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="4">
       <extLst>
@@ -1456,7 +1765,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="z-m0CBOBDUK6B1L31N-KzfRaRV1MDk1Ji9QC9EAUDfNURFZWWUg2UllaNkVFMzhMSVQwNVEyRVJSSC4u" isFormConnected="1" maxResponseId="117" latestEventMarker="143">
+      <xlmsforms:msForm id="z-m0CBOBDUK6B1L31N-KzfRaRV1MDk1Ji9QC9EAUDfNURFZWWUg2UllaNkVFMzhMSVQwNVEyRVJSSC4u" isFormConnected="1" maxResponseId="145" latestEventMarker="174">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -1769,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1799,10 +2108,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>422</v>
+        <v>525</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>423</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1937,9 +2246,7 @@
       <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -1952,16 +2259,16 @@
         <v>45687.452997685199</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1975,13 +2282,13 @@
         <v>45693.331863425898</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1996,16 +2303,16 @@
         <v>45693.334884259297</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -2019,13 +2326,13 @@
         <v>45693.3816435185</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -2040,13 +2347,13 @@
         <v>45693.383946759299</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -2061,13 +2368,13 @@
         <v>45693.386689814797</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -2082,13 +2389,13 @@
         <v>45693.387499999997</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -2103,13 +2410,13 @@
         <v>45693.388344907398</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -2124,16 +2431,16 @@
         <v>45693.392523148097</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2147,16 +2454,16 @@
         <v>45693.392789351899</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -2170,16 +2477,16 @@
         <v>45693.393090277801</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -2193,16 +2500,16 @@
         <v>45693.437581018501</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -2216,16 +2523,16 @@
         <v>45693.438067129602</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -2239,16 +2546,16 @@
         <v>45693.439340277801</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -2262,16 +2569,16 @@
         <v>45693.439583333296</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -2285,16 +2592,16 @@
         <v>45693.440497685202</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -2308,16 +2615,16 @@
         <v>45693.440520833297</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -2331,16 +2638,16 @@
         <v>45693.443657407399</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -2354,16 +2661,16 @@
         <v>45693.4449074074</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -2377,13 +2684,13 @@
         <v>45693.4551967593</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -2398,16 +2705,16 @@
         <v>45693.4552430556</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -2421,13 +2728,13 @@
         <v>45693.455983796302</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="G29" s="2"/>
     </row>
@@ -2442,16 +2749,16 @@
         <v>45693.456168981502</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -2465,16 +2772,16 @@
         <v>45693.456307870401</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -2488,16 +2795,16 @@
         <v>45693.456527777802</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2511,13 +2818,13 @@
         <v>45693.456805555601</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="G33" s="2"/>
     </row>
@@ -2532,16 +2839,16 @@
         <v>45693.457928240699</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2555,13 +2862,13 @@
         <v>45693.458425925899</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="G35" s="2"/>
     </row>
@@ -2576,16 +2883,16 @@
         <v>45693.461226851898</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2599,16 +2906,16 @@
         <v>45693.462592592601</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -2622,16 +2929,16 @@
         <v>45693.4628240741</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -2645,16 +2952,16 @@
         <v>45693.463078703702</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2668,16 +2975,16 @@
         <v>45693.463275463</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2691,16 +2998,16 @@
         <v>45693.463912036997</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2714,16 +3021,16 @@
         <v>45693.464108796303</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2737,13 +3044,13 @@
         <v>45693.464224536998</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="G43" s="2"/>
     </row>
@@ -2758,16 +3065,16 @@
         <v>45693.464328703703</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2781,16 +3088,16 @@
         <v>45693.464479166701</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2804,16 +3111,16 @@
         <v>45693.464699074102</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2827,16 +3134,16 @@
         <v>45693.465046296304</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2850,16 +3157,16 @@
         <v>45693.467650462997</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="G48" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2873,16 +3180,16 @@
         <v>45693.468333333301</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2896,16 +3203,16 @@
         <v>45693.468449074098</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2919,16 +3226,16 @@
         <v>45693.4706365741</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="G51" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -2942,16 +3249,16 @@
         <v>45693.4738657407</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -2965,15 +3272,17 @@
         <v>45693.4743171296</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
@@ -4288,6 +4597,632 @@
       <c r="G111" s="3" t="s">
         <v>421</v>
       </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>118</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45701.512326388904</v>
+      </c>
+      <c r="C112" s="1">
+        <v>45701.513935185198</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>119</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45701.698530092603</v>
+      </c>
+      <c r="C113" s="1">
+        <v>45701.701076388897</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>120</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45701.959710648203</v>
+      </c>
+      <c r="C114" s="1">
+        <v>45701.961666666699</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>121</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45702.585381944402</v>
+      </c>
+      <c r="C115" s="1">
+        <v>45702.586678240703</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>122</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45702.685752314799</v>
+      </c>
+      <c r="C116" s="1">
+        <v>45702.688425925902</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>123</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45702.944664351897</v>
+      </c>
+      <c r="C117" s="1">
+        <v>45702.9452662037</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>124</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45703.412627314799</v>
+      </c>
+      <c r="C118" s="1">
+        <v>45703.4147800926</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>125</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45703.8812847222</v>
+      </c>
+      <c r="C119" s="1">
+        <v>45703.885451388902</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>126</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45704.025891203702</v>
+      </c>
+      <c r="C120" s="1">
+        <v>45704.026145833297</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>127</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45704.026423611103</v>
+      </c>
+      <c r="C121" s="1">
+        <v>45704.026597222197</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>128</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45704.592013888898</v>
+      </c>
+      <c r="C122" s="1">
+        <v>45704.605208333298</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>129</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45704.694687499999</v>
+      </c>
+      <c r="C123" s="1">
+        <v>45704.694965277798</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>130</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45704.869745370401</v>
+      </c>
+      <c r="C124" s="1">
+        <v>45704.870266203703</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>131</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45704.884803240697</v>
+      </c>
+      <c r="C125" s="1">
+        <v>45704.885138888902</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>132</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45704.900497685201</v>
+      </c>
+      <c r="C126" s="1">
+        <v>45704.904293981497</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>133</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45705.477083333302</v>
+      </c>
+      <c r="C127" s="1">
+        <v>45705.481423611098</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>134</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45705.9608449074</v>
+      </c>
+      <c r="C128" s="1">
+        <v>45705.969340277799</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>135</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45706.300706018497</v>
+      </c>
+      <c r="C129" s="1">
+        <v>45706.304907407401</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>136</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45706.479953703703</v>
+      </c>
+      <c r="C130" s="1">
+        <v>45706.480208333298</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>137</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45706.623263888898</v>
+      </c>
+      <c r="C131" s="1">
+        <v>45706.633252314801</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>138</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45706.657905092601</v>
+      </c>
+      <c r="C132" s="1">
+        <v>45706.658692129597</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>139</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45706.714386574102</v>
+      </c>
+      <c r="C133" s="1">
+        <v>45706.715057870402</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>140</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45707.393819444398</v>
+      </c>
+      <c r="C134" s="1">
+        <v>45707.394027777802</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>141</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45707.677384259303</v>
+      </c>
+      <c r="C135" s="1">
+        <v>45707.680254629602</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>142</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45707.682997685202</v>
+      </c>
+      <c r="C136" s="1">
+        <v>45707.685173611098</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>143</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45707.766770833303</v>
+      </c>
+      <c r="C137" s="1">
+        <v>45707.767002314802</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>144</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45707.874965277799</v>
+      </c>
+      <c r="C138" s="1">
+        <v>45707.875277777799</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>145</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45707.887384259302</v>
+      </c>
+      <c r="C139" s="1">
+        <v>45707.8894560185</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="G139" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/player_data.xlsx
+++ b/src/player_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D356B8A1-B999-4514-97A5-A2474F6B3C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33581DB6-8AE6-49AB-863D-9E553AADA795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="638">
   <si>
     <t>Id</t>
   </si>
@@ -1003,9 +1003,6 @@
     <t>Harnagad Sidhu</t>
   </si>
   <si>
-    <t>angad_ssidhu</t>
-  </si>
-  <si>
     <t>adam.bennett@surreyschools.ca</t>
   </si>
   <si>
@@ -1934,6 +1931,9 @@
   </si>
   <si>
     <t>unkown</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/Harangad_IMG_GT.jpeg</t>
   </si>
 </sst>
 </file>
@@ -2024,7 +2024,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2054,6 +2054,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2378,8 +2379,8 @@
   </sheetPr>
   <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F171" sqref="F171"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4326,10 +4327,12 @@
       <c r="E86" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="F86" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G86" s="7"/>
+      <c r="F86" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12">
@@ -4342,16 +4345,16 @@
         <v>45698.525694444441</v>
       </c>
       <c r="D87" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="F87" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="F87" s="12" t="s">
+      <c r="G87" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4365,16 +4368,16 @@
         <v>45698.915277777778</v>
       </c>
       <c r="D88" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="F88" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="G88" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4388,13 +4391,13 @@
         <v>45699.45208333333</v>
       </c>
       <c r="D89" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="E89" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="F89" s="12" t="s">
         <v>337</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>338</v>
       </c>
       <c r="G89" s="12"/>
     </row>
@@ -4409,16 +4412,16 @@
         <v>45699.698611111111</v>
       </c>
       <c r="D90" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E90" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="F90" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="G90" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4432,16 +4435,16 @@
         <v>45699.954861111109</v>
       </c>
       <c r="D91" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="E91" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="F91" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="F91" s="12" t="s">
+      <c r="G91" s="12" t="s">
         <v>345</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4455,16 +4458,16 @@
         <v>45700.399305555555</v>
       </c>
       <c r="D92" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="F92" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4478,16 +4481,16 @@
         <v>45700.749305555553</v>
       </c>
       <c r="D93" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E93" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="F93" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="F93" s="12" t="s">
+      <c r="G93" s="12" t="s">
         <v>353</v>
-      </c>
-      <c r="G93" s="12" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4501,13 +4504,13 @@
         <v>45700.75</v>
       </c>
       <c r="D94" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E94" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="F94" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="G94" s="7"/>
     </row>
@@ -4522,16 +4525,16 @@
         <v>45700.754166666666</v>
       </c>
       <c r="D95" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="F95" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="F95" s="12" t="s">
+      <c r="G95" s="12" t="s">
         <v>360</v>
-      </c>
-      <c r="G95" s="12" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4545,16 +4548,16 @@
         <v>45700.788888888892</v>
       </c>
       <c r="D96" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E96" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="F96" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="G96" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4568,13 +4571,13 @@
         <v>45700.792361111111</v>
       </c>
       <c r="D97" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="F97" s="12" t="s">
         <v>367</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>368</v>
       </c>
       <c r="G97" s="12"/>
     </row>
@@ -4589,16 +4592,16 @@
         <v>45700.793749999997</v>
       </c>
       <c r="D98" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="F98" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="G98" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4612,16 +4615,16 @@
         <v>45700.800000000003</v>
       </c>
       <c r="D99" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="F99" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="F99" s="12" t="s">
+      <c r="G99" s="12" t="s">
         <v>375</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4635,16 +4638,16 @@
         <v>45700.801388888889</v>
       </c>
       <c r="D100" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E100" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="F100" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4658,13 +4661,13 @@
         <v>45700.817361111112</v>
       </c>
       <c r="D101" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="F101" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>383</v>
       </c>
       <c r="G101" s="12"/>
     </row>
@@ -4679,16 +4682,16 @@
         <v>45700.826388888891</v>
       </c>
       <c r="D102" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="F102" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="G102" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4702,16 +4705,16 @@
         <v>45700.853472222225</v>
       </c>
       <c r="D103" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="F103" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="F103" s="12" t="s">
+      <c r="G103" s="12" t="s">
         <v>390</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4725,16 +4728,16 @@
         <v>45700.866666666669</v>
       </c>
       <c r="D104" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="E104" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="F104" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="G104" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4748,16 +4751,16 @@
         <v>45700.873611111114</v>
       </c>
       <c r="D105" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="E105" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="F105" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="F105" s="12" t="s">
+      <c r="G105" s="12" t="s">
         <v>398</v>
-      </c>
-      <c r="G105" s="12" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4771,16 +4774,16 @@
         <v>45700.904861111114</v>
       </c>
       <c r="D106" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="F106" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="G106" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4794,16 +4797,16 @@
         <v>45701.313888888886</v>
       </c>
       <c r="D107" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E107" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="F107" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="F107" s="12" t="s">
+      <c r="G107" s="12" t="s">
         <v>406</v>
-      </c>
-      <c r="G107" s="12" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4817,16 +4820,16 @@
         <v>45701.356944444444</v>
       </c>
       <c r="D108" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E108" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="F108" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="G108" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4840,13 +4843,13 @@
         <v>45701.39166666667</v>
       </c>
       <c r="D109" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E109" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="F109" s="12" t="s">
         <v>413</v>
-      </c>
-      <c r="F109" s="12" t="s">
-        <v>414</v>
       </c>
       <c r="G109" s="12"/>
     </row>
@@ -4861,16 +4864,16 @@
         <v>45701.416666666664</v>
       </c>
       <c r="D110" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E110" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="F110" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="G110" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4884,16 +4887,16 @@
         <v>45701.513888888891</v>
       </c>
       <c r="D111" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="F111" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="F111" s="12" t="s">
+      <c r="G111" s="12" t="s">
         <v>421</v>
-      </c>
-      <c r="G111" s="12" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4907,13 +4910,13 @@
         <v>45701.700694444444</v>
       </c>
       <c r="D112" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E112" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="F112" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="G112" s="7"/>
     </row>
@@ -4928,16 +4931,16 @@
         <v>45701.961111111108</v>
       </c>
       <c r="D113" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="E113" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="F113" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="F113" s="12" t="s">
+      <c r="G113" s="12" t="s">
         <v>428</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4951,16 +4954,16 @@
         <v>45702.586111111108</v>
       </c>
       <c r="D114" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="F114" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="G114" s="11" t="s">
         <v>432</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4974,16 +4977,16 @@
         <v>45702.688194444447</v>
       </c>
       <c r="D115" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="E115" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="F115" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="F115" s="12" t="s">
+      <c r="G115" s="12" t="s">
         <v>436</v>
-      </c>
-      <c r="G115" s="12" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4997,16 +5000,16 @@
         <v>45702.945138888892</v>
       </c>
       <c r="D116" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E116" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="F116" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="G116" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5020,16 +5023,16 @@
         <v>45703.414583333331</v>
       </c>
       <c r="D117" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E117" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="F117" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="F117" s="12" t="s">
+      <c r="G117" s="12" t="s">
         <v>444</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5043,16 +5046,16 @@
         <v>45703.885416666664</v>
       </c>
       <c r="D118" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E118" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="F118" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="G118" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5066,13 +5069,13 @@
         <v>45704.025694444441</v>
       </c>
       <c r="D119" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="E119" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="F119" s="12" t="s">
         <v>451</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>452</v>
       </c>
       <c r="G119" s="12"/>
     </row>
@@ -5087,13 +5090,13 @@
         <v>45704.026388888888</v>
       </c>
       <c r="D120" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="E120" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="F120" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="G120" s="7"/>
     </row>
@@ -5108,16 +5111,16 @@
         <v>45704.604861111111</v>
       </c>
       <c r="D121" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="E121" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="F121" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="F121" s="12" t="s">
+      <c r="G121" s="12" t="s">
         <v>458</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5131,16 +5134,16 @@
         <v>45704.694444444445</v>
       </c>
       <c r="D122" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="E122" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="F122" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="G122" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5154,16 +5157,16 @@
         <v>45704.870138888888</v>
       </c>
       <c r="D123" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E123" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="E123" s="10" t="s">
+      <c r="F123" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="F123" s="12" t="s">
+      <c r="G123" s="12" t="s">
         <v>466</v>
-      </c>
-      <c r="G123" s="12" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5177,13 +5180,13 @@
         <v>45704.884722222225</v>
       </c>
       <c r="D124" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="E124" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="F124" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="G124" s="7"/>
     </row>
@@ -5198,16 +5201,16 @@
         <v>45704.904166666667</v>
       </c>
       <c r="D125" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="E125" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="E125" s="10" t="s">
+      <c r="F125" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="F125" s="12" t="s">
+      <c r="G125" s="12" t="s">
         <v>473</v>
-      </c>
-      <c r="G125" s="12" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5221,16 +5224,16 @@
         <v>45705.481249999997</v>
       </c>
       <c r="D126" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="E126" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="F126" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="G126" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5244,16 +5247,16 @@
         <v>45705.96875</v>
       </c>
       <c r="D127" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="E127" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="F127" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="F127" s="12" t="s">
+      <c r="G127" s="12" t="s">
         <v>481</v>
-      </c>
-      <c r="G127" s="12" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5267,16 +5270,16 @@
         <v>45706.304861111108</v>
       </c>
       <c r="D128" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="E128" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="F128" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="G128" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5290,13 +5293,13 @@
         <v>45706.479861111111</v>
       </c>
       <c r="D129" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="E129" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="F129" s="12" t="s">
         <v>488</v>
-      </c>
-      <c r="F129" s="12" t="s">
-        <v>489</v>
       </c>
       <c r="G129" s="12"/>
     </row>
@@ -5311,16 +5314,16 @@
         <v>45706.632638888892</v>
       </c>
       <c r="D130" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E130" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="F130" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="G130" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5334,16 +5337,16 @@
         <v>45706.658333333333</v>
       </c>
       <c r="D131" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="E131" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="F131" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="F131" s="12" t="s">
+      <c r="G131" s="12" t="s">
         <v>496</v>
-      </c>
-      <c r="G131" s="12" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5357,16 +5360,16 @@
         <v>45706.714583333334</v>
       </c>
       <c r="D132" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="E132" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="F132" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="G132" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5380,13 +5383,13 @@
         <v>45707.393750000003</v>
       </c>
       <c r="D133" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="E133" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="F133" s="12" t="s">
         <v>503</v>
-      </c>
-      <c r="F133" s="12" t="s">
-        <v>504</v>
       </c>
       <c r="G133" s="12"/>
     </row>
@@ -5401,16 +5404,16 @@
         <v>45707.679861111108</v>
       </c>
       <c r="D134" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="E134" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="E134" s="10" t="s">
+      <c r="F134" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="G134" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5424,16 +5427,16 @@
         <v>45707.68472222222</v>
       </c>
       <c r="D135" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="E135" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="E135" s="10" t="s">
+      <c r="F135" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="F135" s="12" t="s">
+      <c r="G135" s="12" t="s">
         <v>511</v>
-      </c>
-      <c r="G135" s="12" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5447,13 +5450,13 @@
         <v>45707.76666666667</v>
       </c>
       <c r="D136" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="E136" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="F136" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="G136" s="7"/>
     </row>
@@ -5468,13 +5471,13 @@
         <v>45707.875</v>
       </c>
       <c r="D137" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="E137" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="E137" s="10" t="s">
+      <c r="F137" s="12" t="s">
         <v>517</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>518</v>
       </c>
       <c r="G137" s="12"/>
     </row>
@@ -5489,13 +5492,13 @@
         <v>45707.888888888891</v>
       </c>
       <c r="D138" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="E138" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="F138" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="G138" s="7"/>
     </row>
@@ -5510,13 +5513,13 @@
         <v>45708.465277777781</v>
       </c>
       <c r="D139" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="E139" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="F139" s="12" t="s">
         <v>523</v>
-      </c>
-      <c r="F139" s="12" t="s">
-        <v>524</v>
       </c>
       <c r="G139" s="12"/>
     </row>
@@ -5531,16 +5534,16 @@
         <v>45708.57708333333</v>
       </c>
       <c r="D140" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="E140" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="F140" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="G140" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5554,13 +5557,13 @@
         <v>45708.613888888889</v>
       </c>
       <c r="D141" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="E141" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="F141" s="12" t="s">
         <v>530</v>
-      </c>
-      <c r="F141" s="12" t="s">
-        <v>531</v>
       </c>
       <c r="G141" s="12"/>
     </row>
@@ -5575,16 +5578,16 @@
         <v>45708.713888888888</v>
       </c>
       <c r="D142" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="E142" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="F142" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="F142" s="7" t="s">
+      <c r="G142" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5598,16 +5601,16 @@
         <v>45708.728472222225</v>
       </c>
       <c r="D143" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="E143" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="F143" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="F143" s="12" t="s">
+      <c r="G143" s="12" t="s">
         <v>538</v>
-      </c>
-      <c r="G143" s="12" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5621,16 +5624,16 @@
         <v>45708.731944444444</v>
       </c>
       <c r="D144" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="E144" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="F144" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F144" s="7" t="s">
+      <c r="G144" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5644,16 +5647,16 @@
         <v>45708.742361111108</v>
       </c>
       <c r="D145" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="E145" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="E145" s="10" t="s">
+      <c r="F145" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="F145" s="12" t="s">
+      <c r="G145" s="12" t="s">
         <v>546</v>
-      </c>
-      <c r="G145" s="12" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5667,16 +5670,16 @@
         <v>45708.753472222219</v>
       </c>
       <c r="D146" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="E146" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="F146" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="F146" s="7" t="s">
+      <c r="G146" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5690,13 +5693,13 @@
         <v>45708.822916666664</v>
       </c>
       <c r="D147" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="E147" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="F147" s="12" t="s">
         <v>553</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>554</v>
       </c>
       <c r="G147" s="12"/>
     </row>
@@ -5711,13 +5714,13 @@
         <v>45708.874305555553</v>
       </c>
       <c r="D148" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="E148" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="F148" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="G148" s="7"/>
     </row>
@@ -5732,13 +5735,13 @@
         <v>45709.375</v>
       </c>
       <c r="D149" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="E149" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="F149" s="12" t="s">
         <v>559</v>
-      </c>
-      <c r="F149" s="12" t="s">
-        <v>560</v>
       </c>
       <c r="G149" s="12"/>
     </row>
@@ -5753,16 +5756,16 @@
         <v>45709.443749999999</v>
       </c>
       <c r="D150" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="E150" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="F150" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="F150" s="7" t="s">
+      <c r="G150" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5776,16 +5779,16 @@
         <v>45709.461805555555</v>
       </c>
       <c r="D151" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="E151" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="F151" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="F151" s="12" t="s">
+      <c r="G151" s="12" t="s">
         <v>567</v>
-      </c>
-      <c r="G151" s="12" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5799,16 +5802,16 @@
         <v>45709.756944444445</v>
       </c>
       <c r="D152" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="E152" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="F152" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="F152" s="7" t="s">
+      <c r="G152" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5822,16 +5825,16 @@
         <v>45709.758333333331</v>
       </c>
       <c r="D153" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="E153" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="F153" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="F153" s="12" t="s">
+      <c r="G153" s="12" t="s">
         <v>575</v>
-      </c>
-      <c r="G153" s="12" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5845,13 +5848,13 @@
         <v>45709.803472222222</v>
       </c>
       <c r="D154" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="E154" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="F154" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="G154" s="7"/>
     </row>
@@ -5866,16 +5869,16 @@
         <v>45709.904861111114</v>
       </c>
       <c r="D155" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="E155" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="F155" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="F155" s="12" t="s">
+      <c r="G155" s="12" t="s">
         <v>582</v>
-      </c>
-      <c r="G155" s="12" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5889,13 +5892,13 @@
         <v>45709.956250000003</v>
       </c>
       <c r="D156" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="E156" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="F156" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>586</v>
       </c>
       <c r="G156" s="7"/>
     </row>
@@ -5910,16 +5913,16 @@
         <v>45710.475694444445</v>
       </c>
       <c r="D157" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="E157" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="F157" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="F157" s="12" t="s">
+      <c r="G157" s="12" t="s">
         <v>589</v>
-      </c>
-      <c r="G157" s="12" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5933,16 +5936,16 @@
         <v>45710.479861111111</v>
       </c>
       <c r="D158" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="E158" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="F158" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="F158" s="7" t="s">
+      <c r="G158" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5956,16 +5959,16 @@
         <v>45710.686805555553</v>
       </c>
       <c r="D159" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="E159" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="F159" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="F159" s="12" t="s">
+      <c r="G159" s="12" t="s">
         <v>597</v>
-      </c>
-      <c r="G159" s="12" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5979,16 +5982,16 @@
         <v>45710.75</v>
       </c>
       <c r="D160" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="E160" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="F160" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="F160" s="7" t="s">
+      <c r="G160" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6002,16 +6005,16 @@
         <v>45710.774305555555</v>
       </c>
       <c r="D161" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="E161" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="F161" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="F161" s="12" t="s">
+      <c r="G161" s="12" t="s">
         <v>605</v>
-      </c>
-      <c r="G161" s="12" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6025,13 +6028,13 @@
         <v>45710.988194444442</v>
       </c>
       <c r="D162" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="E162" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="F162" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="G162" s="7"/>
     </row>
@@ -6046,16 +6049,16 @@
         <v>45710.995833333334</v>
       </c>
       <c r="D163" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="E163" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="F163" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="F163" s="12" t="s">
+      <c r="G163" s="12" t="s">
         <v>612</v>
-      </c>
-      <c r="G163" s="12" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6069,13 +6072,13 @@
         <v>45711.038888888892</v>
       </c>
       <c r="D164" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="E164" s="16" t="s">
         <v>614</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="F164" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>616</v>
       </c>
       <c r="G164" s="7"/>
     </row>
@@ -6090,16 +6093,16 @@
         <v>45711.074999999997</v>
       </c>
       <c r="D165" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="E165" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="F165" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="F165" s="12" t="s">
+      <c r="G165" s="12" t="s">
         <v>619</v>
-      </c>
-      <c r="G165" s="12" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6113,16 +6116,16 @@
         <v>45711.506944444445</v>
       </c>
       <c r="D166" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="E166" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="F166" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="F166" s="7" t="s">
+      <c r="G166" s="11" t="s">
         <v>623</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6136,13 +6139,13 @@
         <v>45711.522222222222</v>
       </c>
       <c r="D167" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="E167" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="F167" s="12" t="s">
         <v>626</v>
-      </c>
-      <c r="F167" s="12" t="s">
-        <v>627</v>
       </c>
       <c r="G167" s="12"/>
     </row>
@@ -6157,16 +6160,16 @@
         <v>45711.522222222222</v>
       </c>
       <c r="D168" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="E168" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="F168" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="F168" s="7" t="s">
+      <c r="G168" s="11" t="s">
         <v>630</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6180,13 +6183,13 @@
         <v>45711.522222222222</v>
       </c>
       <c r="D169" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="E169" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="F169" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>634</v>
       </c>
       <c r="G169" s="7"/>
     </row>
@@ -6201,13 +6204,13 @@
         <v>45711.643055555556</v>
       </c>
       <c r="D170" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="E170" s="16" t="s">
         <v>635</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="F170" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="G170" s="7"/>
     </row>
@@ -6223,10 +6226,12 @@
     <hyperlink ref="G168" r:id="rId8" display="https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft Forms/Grad Tag/Question/Adiv_IMG_GT.jpg" xr:uid="{02CE30A4-A72F-405C-9A20-61FE58BCA6A0}"/>
     <hyperlink ref="D169" r:id="rId9" display="mailto:rs01.edwards@surreyschools.ca" xr:uid="{AE16740D-0E6F-4C05-9B92-93B297C2EC32}"/>
     <hyperlink ref="D170" r:id="rId10" display="mailto:mb01.sanchez@surreyschools.ca" xr:uid="{FB0452C6-BDCF-4063-92DD-348D3AF7B832}"/>
+    <hyperlink ref="G86" r:id="rId11" xr:uid="{2055DE76-4A48-42A3-B831-2CED858F4029}"/>
+    <hyperlink ref="F86" r:id="rId12" xr:uid="{7FF69593-D1D9-42CB-9EB0-E137FDE73E1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/player_data.xlsx
+++ b/src/player_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33581DB6-8AE6-49AB-863D-9E553AADA795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5098611F-F8A1-4A33-A2C5-77A463026DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="644">
   <si>
     <t>Id</t>
   </si>
@@ -1934,6 +1934,24 @@
   </si>
   <si>
     <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/Harangad_IMG_GT.jpeg</t>
+  </si>
+  <si>
+    <t>Minh Triet Le</t>
+  </si>
+  <si>
+    <t>minhtriet.le@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>s.abdelhameed@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Sarmed Bek</t>
+  </si>
+  <si>
+    <t>Francesco Cioffi</t>
+  </si>
+  <si>
+    <t>f.cioffi@surreyschools.ca</t>
   </si>
 </sst>
 </file>
@@ -1978,7 +1996,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2003,6 +2021,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2024,7 +2054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2055,6 +2085,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2074,8 +2110,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:G170" totalsRowShown="0">
-  <autoFilter ref="A1:G170" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:G173" totalsRowShown="0">
+  <autoFilter ref="A1:G173" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time"/>
@@ -2377,10 +2413,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="C158" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6214,6 +6250,66 @@
       </c>
       <c r="G170" s="7"/>
     </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" s="7">
+        <v>169</v>
+      </c>
+      <c r="B171" s="8">
+        <v>45711.643055555556</v>
+      </c>
+      <c r="C171" s="8">
+        <v>45711.643055555556</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="E171" t="s">
+        <v>638</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="19">
+        <v>170</v>
+      </c>
+      <c r="B172" s="20">
+        <v>45711.643055555556</v>
+      </c>
+      <c r="C172" s="20">
+        <v>45711.643055555556</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="E172" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" s="5">
+        <v>171</v>
+      </c>
+      <c r="B173" s="8">
+        <v>45711.643055555556</v>
+      </c>
+      <c r="C173" s="8">
+        <v>45711.643055555556</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="E173" t="s">
+        <v>641</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft Forms/Grad Tag/Question/IMG_0616_Kai Douangchanh.jpeg" xr:uid="{5157AEF1-98F4-4AF5-9A69-14555B05BD3D}"/>
@@ -6228,10 +6324,12 @@
     <hyperlink ref="D170" r:id="rId10" display="mailto:mb01.sanchez@surreyschools.ca" xr:uid="{FB0452C6-BDCF-4063-92DD-348D3AF7B832}"/>
     <hyperlink ref="G86" r:id="rId11" xr:uid="{2055DE76-4A48-42A3-B831-2CED858F4029}"/>
     <hyperlink ref="F86" r:id="rId12" xr:uid="{7FF69593-D1D9-42CB-9EB0-E137FDE73E1A}"/>
+    <hyperlink ref="D171" r:id="rId13" xr:uid="{8A68EA67-4ECF-47E4-895E-F5360BB67D18}"/>
+    <hyperlink ref="D173" r:id="rId14" xr:uid="{BEC28D33-2155-4B1C-A20C-CFDF31D7D260}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/player_data.xlsx
+++ b/src/player_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5098611F-F8A1-4A33-A2C5-77A463026DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20CBEAB-C49B-4630-BB31-49AEE35FCB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="648">
   <si>
     <t>Id</t>
   </si>
@@ -1952,6 +1952,18 @@
   </si>
   <si>
     <t>f.cioffi@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>a.walshe@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Avery Walshe</t>
+  </si>
+  <si>
+    <t>carter.oakley@surreyschools.ca</t>
+  </si>
+  <si>
+    <t>Carter Oakley</t>
   </si>
 </sst>
 </file>
@@ -2413,10 +2425,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C158" workbookViewId="0">
-      <selection activeCell="E175" sqref="E175"/>
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6307,6 +6319,46 @@
         <v>641</v>
       </c>
       <c r="F173" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" s="5">
+        <v>171</v>
+      </c>
+      <c r="B174" s="8">
+        <v>45711.643055555556</v>
+      </c>
+      <c r="C174" s="8">
+        <v>45711.643055555556</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="E174" t="s">
+        <v>645</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" s="5">
+        <v>171</v>
+      </c>
+      <c r="B175" s="8">
+        <v>45711.643055555556</v>
+      </c>
+      <c r="C175" s="8">
+        <v>45711.643055555556</v>
+      </c>
+      <c r="D175" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="E175" t="s">
+        <v>647</v>
+      </c>
+      <c r="F175" s="7" t="s">
         <v>636</v>
       </c>
     </row>
@@ -6326,10 +6378,11 @@
     <hyperlink ref="F86" r:id="rId12" xr:uid="{7FF69593-D1D9-42CB-9EB0-E137FDE73E1A}"/>
     <hyperlink ref="D171" r:id="rId13" xr:uid="{8A68EA67-4ECF-47E4-895E-F5360BB67D18}"/>
     <hyperlink ref="D173" r:id="rId14" xr:uid="{BEC28D33-2155-4B1C-A20C-CFDF31D7D260}"/>
+    <hyperlink ref="D175" r:id="rId15" xr:uid="{85FC63F8-6BAB-4193-B4B3-D8DB1859D66B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/player_data.xlsx
+++ b/src/player_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20CBEAB-C49B-4630-BB31-49AEE35FCB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A885CE-7CFC-4A3F-8B6B-4372CA03BB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="649">
   <si>
     <t>Id</t>
   </si>
@@ -886,9 +886,6 @@
     <t>anuree.j</t>
   </si>
   <si>
-    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_0528_Anuree%20Johnston.jpeg</t>
-  </si>
-  <si>
     <t>ashli.cox@surreyschools.ca</t>
   </si>
   <si>
@@ -1964,6 +1961,12 @@
   </si>
   <si>
     <t>Carter Oakley</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/IMG_GT_Anuree.jpg</t>
+  </si>
+  <si>
+    <t>https://sd36-my.sharepoint.com/personal/yash_jain_surreyschools_ca/Documents/Apps/Microsoft%20Forms/Grad%20Tag/Question/GT_LIAM.jpg</t>
   </si>
 </sst>
 </file>
@@ -2427,8 +2430,8 @@
   </sheetPr>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C158" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+    <sheetView tabSelected="1" topLeftCell="E91" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4148,8 +4151,8 @@
       <c r="F76" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G76" s="9" t="s">
-        <v>288</v>
+      <c r="G76" s="11" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4163,16 +4166,16 @@
         <v>45694.790277777778</v>
       </c>
       <c r="D77" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="F77" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="G77" s="14" t="s">
         <v>291</v>
-      </c>
-      <c r="G77" s="14" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4186,16 +4189,16 @@
         <v>45694.888888888891</v>
       </c>
       <c r="D78" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E78" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="F78" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="G78" s="9" t="s">
         <v>295</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4209,16 +4212,16 @@
         <v>45694.947222222225</v>
       </c>
       <c r="D79" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="F79" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="F79" s="12" t="s">
+      <c r="G79" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4232,16 +4235,16 @@
         <v>45695.009027777778</v>
       </c>
       <c r="D80" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="F80" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="G80" s="9" t="s">
         <v>303</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4255,16 +4258,16 @@
         <v>45695.361805555556</v>
       </c>
       <c r="D81" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="F81" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="F81" s="12" t="s">
+      <c r="G81" s="14" t="s">
         <v>307</v>
-      </c>
-      <c r="G81" s="14" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4278,16 +4281,16 @@
         <v>45695.642361111109</v>
       </c>
       <c r="D82" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E82" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="F82" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="G82" s="9" t="s">
         <v>311</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4301,16 +4304,16 @@
         <v>45695.645138888889</v>
       </c>
       <c r="D83" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="F83" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="F83" s="12" t="s">
+      <c r="G83" s="14" t="s">
         <v>315</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4324,16 +4327,16 @@
         <v>45696.662499999999</v>
       </c>
       <c r="D84" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E84" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="F84" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="G84" s="9" t="s">
         <v>319</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4347,16 +4350,16 @@
         <v>45697.736111111109</v>
       </c>
       <c r="D85" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="F85" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="G85" s="14" t="s">
         <v>323</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4370,16 +4373,16 @@
         <v>45698.446527777778</v>
       </c>
       <c r="D86" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="E86" s="16" t="s">
-        <v>326</v>
-      </c>
       <c r="F86" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4393,16 +4396,16 @@
         <v>45698.525694444441</v>
       </c>
       <c r="D87" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="F87" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="F87" s="12" t="s">
+      <c r="G87" s="12" t="s">
         <v>329</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4416,16 +4419,16 @@
         <v>45698.915277777778</v>
       </c>
       <c r="D88" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="F88" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="G88" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4439,13 +4442,13 @@
         <v>45699.45208333333</v>
       </c>
       <c r="D89" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="E89" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="F89" s="12" t="s">
         <v>336</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>337</v>
       </c>
       <c r="G89" s="12"/>
     </row>
@@ -4460,16 +4463,16 @@
         <v>45699.698611111111</v>
       </c>
       <c r="D90" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E90" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="F90" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="G90" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4483,16 +4486,16 @@
         <v>45699.954861111109</v>
       </c>
       <c r="D91" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="E91" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="F91" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="F91" s="12" t="s">
+      <c r="G91" s="12" t="s">
         <v>344</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4506,16 +4509,16 @@
         <v>45700.399305555555</v>
       </c>
       <c r="D92" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="F92" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4529,16 +4532,16 @@
         <v>45700.749305555553</v>
       </c>
       <c r="D93" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="E93" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="F93" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="F93" s="12" t="s">
+      <c r="G93" s="12" t="s">
         <v>352</v>
-      </c>
-      <c r="G93" s="12" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4552,13 +4555,13 @@
         <v>45700.75</v>
       </c>
       <c r="D94" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E94" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="F94" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="G94" s="7"/>
     </row>
@@ -4573,16 +4576,16 @@
         <v>45700.754166666666</v>
       </c>
       <c r="D95" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="F95" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="F95" s="12" t="s">
+      <c r="G95" s="12" t="s">
         <v>359</v>
-      </c>
-      <c r="G95" s="12" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4596,16 +4599,16 @@
         <v>45700.788888888892</v>
       </c>
       <c r="D96" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E96" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="F96" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="G96" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4619,13 +4622,13 @@
         <v>45700.792361111111</v>
       </c>
       <c r="D97" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="F97" s="12" t="s">
         <v>366</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>367</v>
       </c>
       <c r="G97" s="12"/>
     </row>
@@ -4640,16 +4643,16 @@
         <v>45700.793749999997</v>
       </c>
       <c r="D98" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="F98" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="G98" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4663,16 +4666,16 @@
         <v>45700.800000000003</v>
       </c>
       <c r="D99" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="F99" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="F99" s="12" t="s">
+      <c r="G99" s="12" t="s">
         <v>374</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4686,16 +4689,16 @@
         <v>45700.801388888889</v>
       </c>
       <c r="D100" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E100" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="F100" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4709,15 +4712,17 @@
         <v>45700.817361111112</v>
       </c>
       <c r="D101" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="F101" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="F101" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="G101" s="12"/>
+      <c r="G101" s="11" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7">
@@ -4730,16 +4735,16 @@
         <v>45700.826388888891</v>
       </c>
       <c r="D102" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="F102" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="G102" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4753,16 +4758,16 @@
         <v>45700.853472222225</v>
       </c>
       <c r="D103" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="F103" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="F103" s="12" t="s">
+      <c r="G103" s="12" t="s">
         <v>389</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4776,16 +4781,16 @@
         <v>45700.866666666669</v>
       </c>
       <c r="D104" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E104" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="F104" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="G104" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4799,16 +4804,16 @@
         <v>45700.873611111114</v>
       </c>
       <c r="D105" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E105" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="F105" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="F105" s="12" t="s">
+      <c r="G105" s="12" t="s">
         <v>397</v>
-      </c>
-      <c r="G105" s="12" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4822,16 +4827,16 @@
         <v>45700.904861111114</v>
       </c>
       <c r="D106" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="F106" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="G106" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4845,16 +4850,16 @@
         <v>45701.313888888886</v>
       </c>
       <c r="D107" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E107" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="F107" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="F107" s="12" t="s">
+      <c r="G107" s="12" t="s">
         <v>405</v>
-      </c>
-      <c r="G107" s="12" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4868,16 +4873,16 @@
         <v>45701.356944444444</v>
       </c>
       <c r="D108" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E108" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="F108" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="G108" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4891,13 +4896,13 @@
         <v>45701.39166666667</v>
       </c>
       <c r="D109" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E109" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="F109" s="12" t="s">
         <v>412</v>
-      </c>
-      <c r="F109" s="12" t="s">
-        <v>413</v>
       </c>
       <c r="G109" s="12"/>
     </row>
@@ -4912,16 +4917,16 @@
         <v>45701.416666666664</v>
       </c>
       <c r="D110" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="E110" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="F110" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="G110" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4935,16 +4940,16 @@
         <v>45701.513888888891</v>
       </c>
       <c r="D111" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="F111" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="F111" s="12" t="s">
+      <c r="G111" s="12" t="s">
         <v>420</v>
-      </c>
-      <c r="G111" s="12" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4958,13 +4963,13 @@
         <v>45701.700694444444</v>
       </c>
       <c r="D112" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="E112" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="F112" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="G112" s="7"/>
     </row>
@@ -4979,16 +4984,16 @@
         <v>45701.961111111108</v>
       </c>
       <c r="D113" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="E113" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="F113" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="F113" s="12" t="s">
+      <c r="G113" s="12" t="s">
         <v>427</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5002,16 +5007,16 @@
         <v>45702.586111111108</v>
       </c>
       <c r="D114" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="F114" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="G114" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5025,16 +5030,16 @@
         <v>45702.688194444447</v>
       </c>
       <c r="D115" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="E115" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="F115" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="F115" s="12" t="s">
+      <c r="G115" s="12" t="s">
         <v>435</v>
-      </c>
-      <c r="G115" s="12" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5048,16 +5053,16 @@
         <v>45702.945138888892</v>
       </c>
       <c r="D116" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E116" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="F116" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="G116" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5071,16 +5076,16 @@
         <v>45703.414583333331</v>
       </c>
       <c r="D117" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="E117" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="F117" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="F117" s="12" t="s">
+      <c r="G117" s="12" t="s">
         <v>443</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5094,16 +5099,16 @@
         <v>45703.885416666664</v>
       </c>
       <c r="D118" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="E118" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="F118" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="G118" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5117,13 +5122,13 @@
         <v>45704.025694444441</v>
       </c>
       <c r="D119" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E119" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="F119" s="12" t="s">
         <v>450</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>451</v>
       </c>
       <c r="G119" s="12"/>
     </row>
@@ -5138,13 +5143,13 @@
         <v>45704.026388888888</v>
       </c>
       <c r="D120" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E120" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="F120" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="G120" s="7"/>
     </row>
@@ -5159,16 +5164,16 @@
         <v>45704.604861111111</v>
       </c>
       <c r="D121" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E121" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="F121" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="F121" s="12" t="s">
+      <c r="G121" s="12" t="s">
         <v>457</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5182,16 +5187,16 @@
         <v>45704.694444444445</v>
       </c>
       <c r="D122" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E122" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="F122" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="G122" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5205,16 +5210,16 @@
         <v>45704.870138888888</v>
       </c>
       <c r="D123" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E123" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="E123" s="10" t="s">
+      <c r="F123" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="F123" s="12" t="s">
+      <c r="G123" s="12" t="s">
         <v>465</v>
-      </c>
-      <c r="G123" s="12" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5228,13 +5233,13 @@
         <v>45704.884722222225</v>
       </c>
       <c r="D124" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E124" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="F124" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="G124" s="7"/>
     </row>
@@ -5249,16 +5254,16 @@
         <v>45704.904166666667</v>
       </c>
       <c r="D125" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="E125" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="E125" s="10" t="s">
+      <c r="F125" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="F125" s="12" t="s">
+      <c r="G125" s="12" t="s">
         <v>472</v>
-      </c>
-      <c r="G125" s="12" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5272,16 +5277,16 @@
         <v>45705.481249999997</v>
       </c>
       <c r="D126" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="E126" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="F126" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="G126" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5295,16 +5300,16 @@
         <v>45705.96875</v>
       </c>
       <c r="D127" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="E127" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="F127" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="F127" s="12" t="s">
+      <c r="G127" s="12" t="s">
         <v>480</v>
-      </c>
-      <c r="G127" s="12" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5318,16 +5323,16 @@
         <v>45706.304861111108</v>
       </c>
       <c r="D128" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="E128" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="F128" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="G128" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5341,13 +5346,13 @@
         <v>45706.479861111111</v>
       </c>
       <c r="D129" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="E129" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="F129" s="12" t="s">
         <v>487</v>
-      </c>
-      <c r="F129" s="12" t="s">
-        <v>488</v>
       </c>
       <c r="G129" s="12"/>
     </row>
@@ -5362,16 +5367,16 @@
         <v>45706.632638888892</v>
       </c>
       <c r="D130" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="E130" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="F130" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="G130" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5385,16 +5390,16 @@
         <v>45706.658333333333</v>
       </c>
       <c r="D131" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="E131" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="F131" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="F131" s="12" t="s">
+      <c r="G131" s="12" t="s">
         <v>495</v>
-      </c>
-      <c r="G131" s="12" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5408,16 +5413,16 @@
         <v>45706.714583333334</v>
       </c>
       <c r="D132" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="E132" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="F132" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="G132" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5431,13 +5436,13 @@
         <v>45707.393750000003</v>
       </c>
       <c r="D133" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="E133" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="F133" s="12" t="s">
         <v>502</v>
-      </c>
-      <c r="F133" s="12" t="s">
-        <v>503</v>
       </c>
       <c r="G133" s="12"/>
     </row>
@@ -5452,16 +5457,16 @@
         <v>45707.679861111108</v>
       </c>
       <c r="D134" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="E134" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="E134" s="10" t="s">
+      <c r="F134" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="G134" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5475,16 +5480,16 @@
         <v>45707.68472222222</v>
       </c>
       <c r="D135" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="E135" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="E135" s="10" t="s">
+      <c r="F135" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="F135" s="12" t="s">
+      <c r="G135" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="G135" s="12" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5498,13 +5503,13 @@
         <v>45707.76666666667</v>
       </c>
       <c r="D136" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="E136" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="F136" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="G136" s="7"/>
     </row>
@@ -5519,13 +5524,13 @@
         <v>45707.875</v>
       </c>
       <c r="D137" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="E137" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="E137" s="10" t="s">
+      <c r="F137" s="12" t="s">
         <v>516</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>517</v>
       </c>
       <c r="G137" s="12"/>
     </row>
@@ -5540,13 +5545,13 @@
         <v>45707.888888888891</v>
       </c>
       <c r="D138" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="E138" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="F138" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="G138" s="7"/>
     </row>
@@ -5561,13 +5566,13 @@
         <v>45708.465277777781</v>
       </c>
       <c r="D139" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="E139" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="F139" s="12" t="s">
         <v>522</v>
-      </c>
-      <c r="F139" s="12" t="s">
-        <v>523</v>
       </c>
       <c r="G139" s="12"/>
     </row>
@@ -5582,16 +5587,16 @@
         <v>45708.57708333333</v>
       </c>
       <c r="D140" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="E140" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="F140" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="G140" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5605,13 +5610,13 @@
         <v>45708.613888888889</v>
       </c>
       <c r="D141" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="E141" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="F141" s="12" t="s">
         <v>529</v>
-      </c>
-      <c r="F141" s="12" t="s">
-        <v>530</v>
       </c>
       <c r="G141" s="12"/>
     </row>
@@ -5626,16 +5631,16 @@
         <v>45708.713888888888</v>
       </c>
       <c r="D142" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="E142" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="F142" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="F142" s="7" t="s">
+      <c r="G142" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5649,16 +5654,16 @@
         <v>45708.728472222225</v>
       </c>
       <c r="D143" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="E143" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="F143" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="F143" s="12" t="s">
+      <c r="G143" s="12" t="s">
         <v>537</v>
-      </c>
-      <c r="G143" s="12" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5672,16 +5677,16 @@
         <v>45708.731944444444</v>
       </c>
       <c r="D144" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="E144" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="F144" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F144" s="7" t="s">
+      <c r="G144" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5695,16 +5700,16 @@
         <v>45708.742361111108</v>
       </c>
       <c r="D145" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="E145" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="E145" s="10" t="s">
+      <c r="F145" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="F145" s="12" t="s">
+      <c r="G145" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="G145" s="12" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5718,16 +5723,16 @@
         <v>45708.753472222219</v>
       </c>
       <c r="D146" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="E146" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="F146" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="F146" s="7" t="s">
+      <c r="G146" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5741,13 +5746,13 @@
         <v>45708.822916666664</v>
       </c>
       <c r="D147" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E147" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="F147" s="12" t="s">
         <v>552</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>553</v>
       </c>
       <c r="G147" s="12"/>
     </row>
@@ -5762,13 +5767,13 @@
         <v>45708.874305555553</v>
       </c>
       <c r="D148" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="E148" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="F148" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="G148" s="7"/>
     </row>
@@ -5783,13 +5788,13 @@
         <v>45709.375</v>
       </c>
       <c r="D149" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="E149" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="F149" s="12" t="s">
         <v>558</v>
-      </c>
-      <c r="F149" s="12" t="s">
-        <v>559</v>
       </c>
       <c r="G149" s="12"/>
     </row>
@@ -5804,16 +5809,16 @@
         <v>45709.443749999999</v>
       </c>
       <c r="D150" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="E150" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="F150" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="F150" s="7" t="s">
+      <c r="G150" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5827,16 +5832,16 @@
         <v>45709.461805555555</v>
       </c>
       <c r="D151" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="E151" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="F151" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="F151" s="12" t="s">
+      <c r="G151" s="12" t="s">
         <v>566</v>
-      </c>
-      <c r="G151" s="12" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5850,16 +5855,16 @@
         <v>45709.756944444445</v>
       </c>
       <c r="D152" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="E152" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="F152" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="F152" s="7" t="s">
+      <c r="G152" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5873,16 +5878,16 @@
         <v>45709.758333333331</v>
       </c>
       <c r="D153" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="E153" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="F153" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="F153" s="12" t="s">
+      <c r="G153" s="12" t="s">
         <v>574</v>
-      </c>
-      <c r="G153" s="12" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5896,13 +5901,13 @@
         <v>45709.803472222222</v>
       </c>
       <c r="D154" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="E154" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="F154" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>578</v>
       </c>
       <c r="G154" s="7"/>
     </row>
@@ -5917,16 +5922,16 @@
         <v>45709.904861111114</v>
       </c>
       <c r="D155" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="E155" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="F155" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="F155" s="12" t="s">
+      <c r="G155" s="12" t="s">
         <v>581</v>
-      </c>
-      <c r="G155" s="12" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5940,13 +5945,13 @@
         <v>45709.956250000003</v>
       </c>
       <c r="D156" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="E156" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="F156" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="G156" s="7"/>
     </row>
@@ -5961,16 +5966,16 @@
         <v>45710.475694444445</v>
       </c>
       <c r="D157" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="E157" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="F157" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="F157" s="12" t="s">
+      <c r="G157" s="12" t="s">
         <v>588</v>
-      </c>
-      <c r="G157" s="12" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5984,16 +5989,16 @@
         <v>45710.479861111111</v>
       </c>
       <c r="D158" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="E158" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="F158" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="F158" s="7" t="s">
+      <c r="G158" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6007,16 +6012,16 @@
         <v>45710.686805555553</v>
       </c>
       <c r="D159" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="E159" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="F159" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="F159" s="12" t="s">
+      <c r="G159" s="12" t="s">
         <v>596</v>
-      </c>
-      <c r="G159" s="12" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6030,16 +6035,16 @@
         <v>45710.75</v>
       </c>
       <c r="D160" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="E160" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="F160" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="F160" s="7" t="s">
+      <c r="G160" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6053,16 +6058,16 @@
         <v>45710.774305555555</v>
       </c>
       <c r="D161" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="E161" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="F161" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="F161" s="12" t="s">
+      <c r="G161" s="12" t="s">
         <v>604</v>
-      </c>
-      <c r="G161" s="12" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6076,13 +6081,13 @@
         <v>45710.988194444442</v>
       </c>
       <c r="D162" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="E162" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="F162" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>608</v>
       </c>
       <c r="G162" s="7"/>
     </row>
@@ -6097,16 +6102,16 @@
         <v>45710.995833333334</v>
       </c>
       <c r="D163" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="E163" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="F163" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="F163" s="12" t="s">
+      <c r="G163" s="12" t="s">
         <v>611</v>
-      </c>
-      <c r="G163" s="12" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6120,13 +6125,13 @@
         <v>45711.038888888892</v>
       </c>
       <c r="D164" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="E164" s="16" t="s">
         <v>613</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="F164" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="G164" s="7"/>
     </row>
@@ -6141,16 +6146,16 @@
         <v>45711.074999999997</v>
       </c>
       <c r="D165" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="E165" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="F165" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="F165" s="12" t="s">
+      <c r="G165" s="12" t="s">
         <v>618</v>
-      </c>
-      <c r="G165" s="12" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6164,16 +6169,16 @@
         <v>45711.506944444445</v>
       </c>
       <c r="D166" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="E166" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="F166" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="F166" s="7" t="s">
+      <c r="G166" s="11" t="s">
         <v>622</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6187,13 +6192,13 @@
         <v>45711.522222222222</v>
       </c>
       <c r="D167" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="E167" s="16" t="s">
         <v>624</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="F167" s="12" t="s">
         <v>625</v>
-      </c>
-      <c r="F167" s="12" t="s">
-        <v>626</v>
       </c>
       <c r="G167" s="12"/>
     </row>
@@ -6208,16 +6213,16 @@
         <v>45711.522222222222</v>
       </c>
       <c r="D168" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="E168" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="F168" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="F168" s="7" t="s">
+      <c r="G168" s="11" t="s">
         <v>629</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6231,13 +6236,13 @@
         <v>45711.522222222222</v>
       </c>
       <c r="D169" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="E169" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="F169" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>633</v>
       </c>
       <c r="G169" s="7"/>
     </row>
@@ -6252,13 +6257,13 @@
         <v>45711.643055555556</v>
       </c>
       <c r="D170" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="E170" s="16" t="s">
         <v>634</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="F170" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="G170" s="7"/>
     </row>
@@ -6273,13 +6278,13 @@
         <v>45711.643055555556</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E171" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="172" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -6293,13 +6298,13 @@
         <v>45711.643055555556</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E172" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
@@ -6313,13 +6318,13 @@
         <v>45711.643055555556</v>
       </c>
       <c r="D173" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="E173" t="s">
         <v>640</v>
       </c>
-      <c r="E173" t="s">
-        <v>641</v>
-      </c>
       <c r="F173" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
@@ -6333,13 +6338,13 @@
         <v>45711.643055555556</v>
       </c>
       <c r="D174" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="E174" t="s">
         <v>644</v>
       </c>
-      <c r="E174" t="s">
-        <v>645</v>
-      </c>
       <c r="F174" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
@@ -6353,13 +6358,13 @@
         <v>45711.643055555556</v>
       </c>
       <c r="D175" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="E175" t="s">
         <v>646</v>
       </c>
-      <c r="E175" t="s">
-        <v>647</v>
-      </c>
       <c r="F175" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -6379,10 +6384,12 @@
     <hyperlink ref="D171" r:id="rId13" xr:uid="{8A68EA67-4ECF-47E4-895E-F5360BB67D18}"/>
     <hyperlink ref="D173" r:id="rId14" xr:uid="{BEC28D33-2155-4B1C-A20C-CFDF31D7D260}"/>
     <hyperlink ref="D175" r:id="rId15" xr:uid="{85FC63F8-6BAB-4193-B4B3-D8DB1859D66B}"/>
+    <hyperlink ref="G76" r:id="rId16" xr:uid="{DC62787B-81F3-4BF3-87BF-9EF9F6B011F3}"/>
+    <hyperlink ref="G101" r:id="rId17" xr:uid="{9ABFAA22-09A1-4DC7-BB68-AF125A8A4B6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/player_data.xlsx
+++ b/src/player_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashj\Programming\gradtag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A885CE-7CFC-4A3F-8B6B-4372CA03BB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D334CB3-AA16-417A-84EA-ACC22EE6B81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2069,7 +2069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2101,9 +2101,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="22" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -2125,8 +2122,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:G173" totalsRowShown="0">
-  <autoFilter ref="A1:G173" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:G175" totalsRowShown="0">
+  <autoFilter ref="A1:G175" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time"/>
@@ -2430,8 +2427,8 @@
   </sheetPr>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E91" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2536,7 +2533,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="13">
@@ -2559,7 +2556,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="8">
@@ -2580,7 +2577,7 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="13">
@@ -2668,7 +2665,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="13">
@@ -2689,7 +2686,7 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
       <c r="B12" s="8">
@@ -2710,7 +2707,7 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="13">
@@ -2796,7 +2793,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="13">
@@ -2819,7 +2816,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
       <c r="B18" s="8">
@@ -2842,7 +2839,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="13">
@@ -2934,7 +2931,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="13">
@@ -2957,7 +2954,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
       <c r="B24" s="8">
@@ -2980,7 +2977,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="13">
@@ -3070,7 +3067,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="13">
@@ -3091,7 +3088,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
       <c r="B30" s="8">
@@ -3114,7 +3111,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="13">
@@ -3204,7 +3201,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="12">
+      <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="13">
@@ -3225,7 +3222,7 @@
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
+      <c r="A36" s="12">
         <v>34</v>
       </c>
       <c r="B36" s="8">
@@ -3248,7 +3245,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="12">
+      <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="13">
@@ -3340,7 +3337,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="12">
+      <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="13">
@@ -3363,7 +3360,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
+      <c r="A42" s="12">
         <v>40</v>
       </c>
       <c r="B42" s="8">
@@ -3386,7 +3383,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="12">
+      <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="13">
@@ -3474,7 +3471,7 @@
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="12">
+      <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="13">
@@ -3497,7 +3494,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="7">
+      <c r="A48" s="12">
         <v>46</v>
       </c>
       <c r="B48" s="8">
@@ -3520,7 +3517,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="12">
+      <c r="A49" s="7">
         <v>47</v>
       </c>
       <c r="B49" s="13">
@@ -3612,7 +3609,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="12">
+      <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="13">
@@ -3635,7 +3632,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="7">
+      <c r="A54" s="12">
         <v>52</v>
       </c>
       <c r="B54" s="8">
@@ -3658,7 +3655,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="12">
+      <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="13">
@@ -3748,7 +3745,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="12">
+      <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="13">
@@ -3771,7 +3768,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="7">
+      <c r="A60" s="12">
         <v>58</v>
       </c>
       <c r="B60" s="8">
@@ -3794,7 +3791,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="12">
+      <c r="A61" s="7">
         <v>59</v>
       </c>
       <c r="B61" s="13">
@@ -3880,7 +3877,7 @@
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="12">
+      <c r="A65" s="7">
         <v>63</v>
       </c>
       <c r="B65" s="13">
@@ -3903,7 +3900,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="7">
+      <c r="A66" s="12">
         <v>64</v>
       </c>
       <c r="B66" s="8">
@@ -3926,7 +3923,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="12">
+      <c r="A67" s="7">
         <v>65</v>
       </c>
       <c r="B67" s="13">
@@ -4018,7 +4015,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="12">
+      <c r="A71" s="7">
         <v>69</v>
       </c>
       <c r="B71" s="13">
@@ -4041,7 +4038,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="7">
+      <c r="A72" s="12">
         <v>70</v>
       </c>
       <c r="B72" s="8">
@@ -4064,7 +4061,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="12">
+      <c r="A73" s="7">
         <v>71</v>
       </c>
       <c r="B73" s="13">
@@ -4156,7 +4153,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="12">
+      <c r="A77" s="7">
         <v>75</v>
       </c>
       <c r="B77" s="13">
@@ -4179,7 +4176,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="7">
+      <c r="A78" s="12">
         <v>76</v>
       </c>
       <c r="B78" s="8">
@@ -4202,7 +4199,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="12">
+      <c r="A79" s="7">
         <v>77</v>
       </c>
       <c r="B79" s="13">
@@ -4294,7 +4291,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="12">
+      <c r="A83" s="7">
         <v>81</v>
       </c>
       <c r="B83" s="13">
@@ -4317,7 +4314,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="7">
+      <c r="A84" s="12">
         <v>82</v>
       </c>
       <c r="B84" s="8">
@@ -4340,7 +4337,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="12">
+      <c r="A85" s="7">
         <v>83</v>
       </c>
       <c r="B85" s="13">
@@ -4432,7 +4429,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="12">
+      <c r="A89" s="7">
         <v>87</v>
       </c>
       <c r="B89" s="13">
@@ -4453,7 +4450,7 @@
       <c r="G89" s="12"/>
     </row>
     <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="7">
+      <c r="A90" s="12">
         <v>88</v>
       </c>
       <c r="B90" s="8">
@@ -4476,7 +4473,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="12">
+      <c r="A91" s="7">
         <v>89</v>
       </c>
       <c r="B91" s="13">
@@ -4566,7 +4563,7 @@
       <c r="G94" s="7"/>
     </row>
     <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="12">
+      <c r="A95" s="7">
         <v>93</v>
       </c>
       <c r="B95" s="13">
@@ -4589,7 +4586,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="7">
+      <c r="A96" s="12">
         <v>94</v>
       </c>
       <c r="B96" s="8">
@@ -4612,7 +4609,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="12">
+      <c r="A97" s="7">
         <v>95</v>
       </c>
       <c r="B97" s="13">
@@ -4702,7 +4699,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="12">
+      <c r="A101" s="7">
         <v>99</v>
       </c>
       <c r="B101" s="13">
@@ -4725,7 +4722,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="7">
+      <c r="A102" s="12">
         <v>100</v>
       </c>
       <c r="B102" s="8">
@@ -4748,7 +4745,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="12">
+      <c r="A103" s="7">
         <v>101</v>
       </c>
       <c r="B103" s="13">
@@ -4840,7 +4837,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="12">
+      <c r="A107" s="7">
         <v>105</v>
       </c>
       <c r="B107" s="13">
@@ -4863,7 +4860,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="7">
+      <c r="A108" s="12">
         <v>106</v>
       </c>
       <c r="B108" s="8">
@@ -4886,7 +4883,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="12">
+      <c r="A109" s="7">
         <v>107</v>
       </c>
       <c r="B109" s="13">
@@ -4974,7 +4971,7 @@
       <c r="G112" s="7"/>
     </row>
     <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="12">
+      <c r="A113" s="7">
         <v>111</v>
       </c>
       <c r="B113" s="13">
@@ -4997,7 +4994,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="7">
+      <c r="A114" s="12">
         <v>112</v>
       </c>
       <c r="B114" s="8">
@@ -5020,7 +5017,7 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="12">
+      <c r="A115" s="7">
         <v>113</v>
       </c>
       <c r="B115" s="13">
@@ -5112,7 +5109,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="12">
+      <c r="A119" s="7">
         <v>117</v>
       </c>
       <c r="B119" s="13">
@@ -5133,7 +5130,7 @@
       <c r="G119" s="12"/>
     </row>
     <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="7">
+      <c r="A120" s="12">
         <v>118</v>
       </c>
       <c r="B120" s="8">
@@ -5154,7 +5151,7 @@
       <c r="G120" s="7"/>
     </row>
     <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="12">
+      <c r="A121" s="7">
         <v>119</v>
       </c>
       <c r="B121" s="13">
@@ -5244,7 +5241,7 @@
       <c r="G124" s="7"/>
     </row>
     <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="12">
+      <c r="A125" s="7">
         <v>123</v>
       </c>
       <c r="B125" s="13">
@@ -5267,7 +5264,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="7">
+      <c r="A126" s="12">
         <v>124</v>
       </c>
       <c r="B126" s="8">
@@ -5290,7 +5287,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="12">
+      <c r="A127" s="7">
         <v>125</v>
       </c>
       <c r="B127" s="13">
@@ -5380,7 +5377,7 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="12">
+      <c r="A131" s="7">
         <v>129</v>
       </c>
       <c r="B131" s="13">
@@ -5403,7 +5400,7 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="7">
+      <c r="A132" s="12">
         <v>130</v>
       </c>
       <c r="B132" s="8">
@@ -5426,7 +5423,7 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="12">
+      <c r="A133" s="7">
         <v>131</v>
       </c>
       <c r="B133" s="13">
@@ -5514,7 +5511,7 @@
       <c r="G136" s="7"/>
     </row>
     <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="12">
+      <c r="A137" s="7">
         <v>135</v>
       </c>
       <c r="B137" s="13">
@@ -5535,7 +5532,7 @@
       <c r="G137" s="12"/>
     </row>
     <row r="138" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="7">
+      <c r="A138" s="12">
         <v>136</v>
       </c>
       <c r="B138" s="8">
@@ -5556,7 +5553,7 @@
       <c r="G138" s="7"/>
     </row>
     <row r="139" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="12">
+      <c r="A139" s="7">
         <v>137</v>
       </c>
       <c r="B139" s="13">
@@ -5644,7 +5641,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="12">
+      <c r="A143" s="7">
         <v>141</v>
       </c>
       <c r="B143" s="13">
@@ -5667,7 +5664,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="7">
+      <c r="A144" s="12">
         <v>142</v>
       </c>
       <c r="B144" s="8">
@@ -5690,7 +5687,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="12">
+      <c r="A145" s="7">
         <v>143</v>
       </c>
       <c r="B145" s="13">
@@ -5778,7 +5775,7 @@
       <c r="G148" s="7"/>
     </row>
     <row r="149" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="12">
+      <c r="A149" s="7">
         <v>147</v>
       </c>
       <c r="B149" s="13">
@@ -5799,7 +5796,7 @@
       <c r="G149" s="12"/>
     </row>
     <row r="150" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="7">
+      <c r="A150" s="12">
         <v>148</v>
       </c>
       <c r="B150" s="8">
@@ -5822,7 +5819,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="12">
+      <c r="A151" s="7">
         <v>149</v>
       </c>
       <c r="B151" s="13">
@@ -5912,7 +5909,7 @@
       <c r="G154" s="7"/>
     </row>
     <row r="155" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="12">
+      <c r="A155" s="7">
         <v>153</v>
       </c>
       <c r="B155" s="13">
@@ -5935,7 +5932,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="7">
+      <c r="A156" s="12">
         <v>154</v>
       </c>
       <c r="B156" s="8">
@@ -5956,7 +5953,7 @@
       <c r="G156" s="7"/>
     </row>
     <row r="157" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="12">
+      <c r="A157" s="7">
         <v>155</v>
       </c>
       <c r="B157" s="13">
@@ -6048,7 +6045,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="12">
+      <c r="A161" s="7">
         <v>159</v>
       </c>
       <c r="B161" s="13">
@@ -6071,7 +6068,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="7">
+      <c r="A162" s="12">
         <v>160</v>
       </c>
       <c r="B162" s="8">
@@ -6092,7 +6089,7 @@
       <c r="G162" s="7"/>
     </row>
     <row r="163" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="12">
+      <c r="A163" s="7">
         <v>161</v>
       </c>
       <c r="B163" s="13">
@@ -6182,7 +6179,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="12">
+      <c r="A167" s="7">
         <v>165</v>
       </c>
       <c r="B167" s="13">
@@ -6203,7 +6200,7 @@
       <c r="G167" s="12"/>
     </row>
     <row r="168" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="7">
+      <c r="A168" s="12">
         <v>166</v>
       </c>
       <c r="B168" s="8">
@@ -6268,7 +6265,7 @@
       <c r="G170" s="7"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="7">
+      <c r="A171" s="12">
         <v>169</v>
       </c>
       <c r="B171" s="8">
@@ -6287,20 +6284,20 @@
         <v>635</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="19">
+    <row r="172" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="7">
         <v>170</v>
       </c>
-      <c r="B172" s="20">
+      <c r="B172" s="19">
         <v>45711.643055555556</v>
       </c>
-      <c r="C172" s="20">
+      <c r="C172" s="19">
         <v>45711.643055555556</v>
       </c>
-      <c r="D172" s="21" t="s">
+      <c r="D172" s="20" t="s">
         <v>642</v>
       </c>
-      <c r="E172" s="21" t="s">
+      <c r="E172" s="20" t="s">
         <v>641</v>
       </c>
       <c r="F172" s="7" t="s">
@@ -6308,7 +6305,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="5">
+      <c r="A173" s="7">
         <v>171</v>
       </c>
       <c r="B173" s="8">
@@ -6328,8 +6325,8 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="5">
-        <v>171</v>
+      <c r="A174" s="12">
+        <v>172</v>
       </c>
       <c r="B174" s="8">
         <v>45711.643055555556</v>
@@ -6348,8 +6345,8 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" s="5">
-        <v>171</v>
+      <c r="A175" s="7">
+        <v>173</v>
       </c>
       <c r="B175" s="8">
         <v>45711.643055555556</v>
